--- a/pythonshinyproject/dashboard/data/Canada OWM Facilities Database.xlsx
+++ b/pythonshinyproject/dashboard/data/Canada OWM Facilities Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smacdo55\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smacdo55\Downloads\Jupyter Notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3485EE-D1F2-49ED-A562-C91A37CF2EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B991F7D0-F09F-4FCA-A34A-5F35327407DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1815" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LCI" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="203">
   <si>
     <t>Database</t>
   </si>
@@ -250,9 +250,6 @@
     <t>Methane, non-fossil</t>
   </si>
   <si>
-    <t>NMVOC, non-methane volatile organic compounds, unspecified origin</t>
-  </si>
-  <si>
     <t>substitution</t>
   </si>
   <si>
@@ -301,9 +298,6 @@
     <t>kwh</t>
   </si>
   <si>
-    <t>will hopefully be based on terrebonne windrow, currently based on Lewerenz open composter</t>
-  </si>
-  <si>
     <t>Transportation Distance</t>
   </si>
   <si>
@@ -370,9 +364,6 @@
     <t>can't find address currently</t>
   </si>
   <si>
-    <t>Open Compost</t>
-  </si>
-  <si>
     <t>general canadian facility, no transport</t>
   </si>
   <si>
@@ -592,9 +583,6 @@
     <t>NS_compost</t>
   </si>
   <si>
-    <t>light fuel oil</t>
-  </si>
-  <si>
     <t>CA-NS</t>
   </si>
   <si>
@@ -616,9 +604,6 @@
     <t>market for diesel, burned in diesel-electric generating set, 10MW</t>
   </si>
   <si>
-    <t>market for light fuel oil</t>
-  </si>
-  <si>
     <t>soil</t>
   </si>
   <si>
@@ -631,16 +616,43 @@
     <t>market for natural gas, high pressure</t>
   </si>
   <si>
-    <t>treatment of wastewater, average, capacity 1.6E8l/year</t>
-  </si>
-  <si>
-    <t>ecoinvent-3.8-biosphere</t>
-  </si>
-  <si>
     <t xml:space="preserve">empty lorry km </t>
   </si>
   <si>
     <t>sensitivity, 50, 60 %</t>
+  </si>
+  <si>
+    <t>ecoinvent-3.9.1-cutoff</t>
+  </si>
+  <si>
+    <t>ecoinvent-3.9-biosphere</t>
+  </si>
+  <si>
+    <t>OWM Facilities</t>
+  </si>
+  <si>
+    <t>treatment of wastewater, average, wastewater treatment</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>NMVOC, non-methane volatile organic compounds</t>
+  </si>
+  <si>
+    <t>nutrient supply from potassium nitrate</t>
+  </si>
+  <si>
+    <t>Courthouse Hill Energy Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avoided fertilizer… </t>
+  </si>
+  <si>
+    <t>market for diesel</t>
+  </si>
+  <si>
+    <t>diesel</t>
   </si>
 </sst>
 </file>
@@ -652,7 +664,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,8 +720,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -731,12 +751,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,23 +782,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -808,7 +821,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
@@ -826,10 +838,30 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Heading 1" xfId="3" builtinId="16"/>
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{C1984B5A-0E98-421D-9649-8C2FA38520A2}"/>
@@ -860,14 +892,8 @@
       <sheetName val="Home composting"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="14">
-          <cell r="E14">
-            <v>0.12406233077303427</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="23">
           <cell r="M23">
@@ -880,7 +906,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1171,29 +1197,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J436"/>
+  <dimension ref="A1:J324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="C201" sqref="C201"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="F310" sqref="F310"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.453125" customWidth="1"/>
-    <col min="2" max="2" width="50.81640625" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="6" max="7" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="67.42578125" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1208,7 +1235,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1216,7 +1243,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1231,7 +1258,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1246,7 +1273,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1261,12 +1288,12 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1295,382 +1322,466 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="28">
         <v>1</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E11" s="27" t="str">
         <f>B5</f>
         <v>CA-QC</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F11" s="27" t="str">
         <f>$B$1</f>
-        <v>OWM LCA</v>
-      </c>
-      <c r="G11" t="s">
+        <v>OWM Facilities</v>
+      </c>
+      <c r="G11" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" t="s">
+      <c r="H11" s="29"/>
+      <c r="I11" s="27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="30">
         <f>0.033*1000</f>
         <v>33</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E12" s="27" t="str">
         <f>B5</f>
         <v>CA-QC</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F12" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G12" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I12" t="s">
+      <c r="H12" s="27"/>
+      <c r="I12" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="30">
         <f>0.000253016462365506*1000</f>
         <v>0.25301646236550601</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="F13" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G13" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I13" t="s">
+      <c r="H13" s="27"/>
+      <c r="I13" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="30">
         <f>Transportation!B15</f>
         <v>28.4</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F14" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G14" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I14" t="s">
+      <c r="H14" s="27"/>
+      <c r="I14" s="27" t="s">
         <v>37</v>
       </c>
       <c r="J14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="10">
+      <c r="C15" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="30">
         <f>0.0000185*1000</f>
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F15" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I15" t="s">
+      <c r="H15" s="27"/>
+      <c r="I15" s="27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="27">
         <v>0.22500000000000001</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F16" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I16" t="s">
+      <c r="H16" s="27"/>
+      <c r="I16" s="27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="30">
         <f>0.000125*1000</f>
         <v>0.125</v>
       </c>
-      <c r="F17" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="E17" s="27"/>
+      <c r="F17" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G17" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="27" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="11">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="32">
         <f>0.0000376*1000</f>
         <v>3.7600000000000001E-2</v>
       </c>
-      <c r="F18" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="E18" s="27"/>
+      <c r="F18" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G18" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="10">
+      <c r="B19" s="27"/>
+      <c r="C19" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="30">
         <f>0.0936*1000</f>
         <v>93.600000000000009</v>
       </c>
-      <c r="F19" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="E19" s="27"/>
+      <c r="F19" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="10">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="30">
         <f>0.000091*1000</f>
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="F20" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="E20" s="27"/>
+      <c r="F20" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="10">
+      <c r="B21" s="27"/>
+      <c r="C21" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="30">
         <f>0.000526*1000</f>
         <v>0.52600000000000002</v>
       </c>
-      <c r="F21" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="E21" s="27"/>
+      <c r="F21" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="10">
+      <c r="B22" s="27"/>
+      <c r="C22" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="30">
         <f>0.00264*1000</f>
         <v>2.64</v>
       </c>
-      <c r="F22" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="E22" s="27"/>
+      <c r="F22" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="11">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="32">
         <f>0.000476*1000</f>
         <v>0.47600000000000003</v>
       </c>
-      <c r="F23" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="E23" s="27"/>
+      <c r="F23" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D24" s="12"/>
-      <c r="F24" s="23"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F25" s="23"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F26" s="23"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="27">
+        <v>0.29528799999999999</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="27">
+        <v>0.168736</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="27">
+        <v>0.253104</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
       <c r="D28" s="13"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
       <c r="D29" s="13"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
@@ -1685,15 +1796,15 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>4</v>
       </c>
@@ -1708,7 +1819,7 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>6</v>
       </c>
@@ -1723,7 +1834,7 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
@@ -1738,12 +1849,12 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
@@ -1772,7 +1883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -1791,13 +1902,13 @@
       </c>
       <c r="F44" t="str">
         <f>$B$1</f>
-        <v>OWM LCA</v>
+        <v>OWM Facilities</v>
       </c>
       <c r="G44" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -1815,22 +1926,22 @@
         <f>E44</f>
         <v>CA-QC</v>
       </c>
-      <c r="F45" s="23" t="s">
-        <v>156</v>
+      <c r="F45" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="G45" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" t="s">
         <v>72</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>73</v>
-      </c>
-      <c r="C46" t="s">
-        <v>74</v>
       </c>
       <c r="D46" s="10">
         <f>1000*0.2416</f>
@@ -1839,14 +1950,14 @@
       <c r="E46" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="23" t="s">
-        <v>156</v>
+      <c r="F46" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="G46" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -1863,19 +1974,19 @@
       <c r="E47" t="s">
         <v>41</v>
       </c>
-      <c r="F47" s="23" t="s">
-        <v>156</v>
+      <c r="F47" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" t="s">
         <v>75</v>
-      </c>
-      <c r="B48" t="s">
-        <v>76</v>
       </c>
       <c r="C48" t="s">
         <v>54</v>
@@ -1885,16 +1996,16 @@
         <v>225</v>
       </c>
       <c r="E48" t="s">
-        <v>71</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>156</v>
+        <v>70</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="G48" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -1911,14 +2022,14 @@
       <c r="E49" t="s">
         <v>47</v>
       </c>
-      <c r="F49" s="23" t="s">
-        <v>156</v>
+      <c r="F49" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="G49" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -1929,8 +2040,8 @@
         <f>1000*0.0001456</f>
         <v>0.14559999999999998</v>
       </c>
-      <c r="F50" s="23" t="s">
-        <v>196</v>
+      <c r="F50" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="G50" t="s">
         <v>60</v>
@@ -1939,7 +2050,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -1950,8 +2061,8 @@
         <f>1000*0.0916</f>
         <v>91.6</v>
       </c>
-      <c r="F51" s="23" t="s">
-        <v>196</v>
+      <c r="F51" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="G51" t="s">
         <v>60</v>
@@ -1960,7 +2071,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -1971,8 +2082,8 @@
         <f>1000*0.00008</f>
         <v>0.08</v>
       </c>
-      <c r="F52" s="23" t="s">
-        <v>196</v>
+      <c r="F52" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="G52" t="s">
         <v>60</v>
@@ -1981,7 +2092,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -1992,8 +2103,8 @@
         <f>1000*0.0000896</f>
         <v>8.9599999999999999E-2</v>
       </c>
-      <c r="F53" s="23" t="s">
-        <v>196</v>
+      <c r="F53" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="G53" t="s">
         <v>60</v>
@@ -2002,7 +2113,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -2013,8 +2124,8 @@
         <f>1000*0.00274</f>
         <v>2.7399999999999998</v>
       </c>
-      <c r="F54" s="23" t="s">
-        <v>196</v>
+      <c r="F54" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="G54" t="s">
         <v>60</v>
@@ -2023,9 +2134,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="C55" t="s">
         <v>54</v>
@@ -2034,8 +2145,8 @@
         <f>1000*0.000426</f>
         <v>0.42599999999999999</v>
       </c>
-      <c r="F55" s="23" t="s">
-        <v>196</v>
+      <c r="F55" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="G55" t="s">
         <v>60</v>
@@ -2044,9 +2155,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" t="s">
         <v>54</v>
@@ -2055,8 +2166,8 @@
         <f>1000*0.00000297</f>
         <v>2.97E-3</v>
       </c>
-      <c r="F56" s="23" t="s">
-        <v>196</v>
+      <c r="F56" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="G56" t="s">
         <v>60</v>
@@ -2065,9 +2176,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57" t="s">
         <v>54</v>
@@ -2076,8 +2187,8 @@
         <f>1000*0.0000000928</f>
         <v>9.2799999999999992E-5</v>
       </c>
-      <c r="F57" s="23" t="s">
-        <v>196</v>
+      <c r="F57" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="G57" t="s">
         <v>60</v>
@@ -2086,9 +2197,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C58" t="s">
         <v>54</v>
@@ -2097,8 +2208,8 @@
         <f>1000*0.000000109</f>
         <v>1.0899999999999999E-4</v>
       </c>
-      <c r="F58" s="23" t="s">
-        <v>196</v>
+      <c r="F58" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="G58" t="s">
         <v>60</v>
@@ -2107,9 +2218,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C59" t="s">
         <v>54</v>
@@ -2118,8 +2229,8 @@
         <f>1000*0.0000000704</f>
         <v>7.039999999999999E-5</v>
       </c>
-      <c r="F59" s="23" t="s">
-        <v>196</v>
+      <c r="F59" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="G59" t="s">
         <v>60</v>
@@ -2128,7 +2239,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>195</v>
       </c>
@@ -2144,8 +2255,8 @@
       <c r="E60" t="s">
         <v>5</v>
       </c>
-      <c r="F60" s="23" t="s">
-        <v>156</v>
+      <c r="F60" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="G60" t="s">
         <v>19</v>
@@ -2154,12 +2265,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" t="s">
         <v>81</v>
-      </c>
-      <c r="B61" t="s">
-        <v>82</v>
       </c>
       <c r="C61" t="s">
         <v>54</v>
@@ -2171,19 +2282,22 @@
       <c r="E61" t="s">
         <v>41</v>
       </c>
-      <c r="F61" s="23" t="s">
-        <v>156</v>
+      <c r="F61" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="G61" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="I61" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="B62" t="s">
-        <v>193</v>
+        <v>189</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>188</v>
       </c>
       <c r="C62" t="s">
         <v>57</v>
@@ -2193,16 +2307,16 @@
         <v>20.905141753653442</v>
       </c>
       <c r="E62" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="23" t="s">
-        <v>156</v>
+        <v>196</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="G62" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>2</v>
       </c>
@@ -2217,15 +2331,15 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>4</v>
       </c>
@@ -2240,7 +2354,7 @@
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>6</v>
       </c>
@@ -2255,7 +2369,7 @@
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>7</v>
       </c>
@@ -2270,12 +2384,12 @@
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>10</v>
       </c>
@@ -2304,146 +2418,154 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D73" s="34">
         <v>1</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F73" t="str">
+      <c r="F73" s="27" t="str">
         <f>$B$1</f>
-        <v>OWM LCA</v>
-      </c>
-      <c r="G73" t="s">
+        <v>OWM Facilities</v>
+      </c>
+      <c r="G73" s="27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="H73" s="27"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D74" s="33">
         <f>Transportation!B4</f>
         <v>50.7</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F74" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="F74" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G74" s="27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H74" s="27"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="27" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D75" s="27">
         <f>0.319/948.45138280892</f>
         <v>3.363377457000001E-4</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F75" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="F75" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G75" s="27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>138</v>
-      </c>
-      <c r="C76" t="s">
-        <v>54</v>
-      </c>
-      <c r="D76" s="14">
+      <c r="H75" s="27"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D76" s="33">
         <v>73.250026790475331</v>
       </c>
-      <c r="F76" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="E76" s="27"/>
+      <c r="F76" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G76" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H76" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>192</v>
-      </c>
-      <c r="C77" t="s">
-        <v>54</v>
-      </c>
-      <c r="D77" s="14">
+      <c r="H76" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D77" s="33">
         <v>16.43865381141773</v>
       </c>
-      <c r="F77" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="E77" s="27"/>
+      <c r="F77" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G77" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="B78" t="s">
-        <v>193</v>
-      </c>
-      <c r="C78" t="s">
+        <v>189</v>
+      </c>
+      <c r="B78" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C78" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="27">
         <f>'Natural gas credit AD'!B28</f>
         <v>0</v>
       </c>
-      <c r="E78" t="s">
-        <v>5</v>
-      </c>
-      <c r="F78" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G78" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E78" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="F78" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G78" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H78" s="27"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D80" s="11"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>2</v>
       </c>
@@ -2458,15 +2580,15 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>4</v>
       </c>
@@ -2481,7 +2603,7 @@
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>6</v>
       </c>
@@ -2496,7 +2618,7 @@
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>7</v>
       </c>
@@ -2511,12 +2633,12 @@
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>10</v>
       </c>
@@ -2545,7 +2667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f>B81</f>
         <v>Landfill_terrebonne</v>
@@ -2564,13 +2686,13 @@
       </c>
       <c r="F89" t="str">
         <f>$B$1</f>
-        <v>OWM LCA</v>
+        <v>OWM Facilities</v>
       </c>
       <c r="G89" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>45</v>
       </c>
@@ -2587,19 +2709,19 @@
       <c r="E90" t="s">
         <v>47</v>
       </c>
-      <c r="F90" s="23" t="s">
-        <v>156</v>
+      <c r="F90" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="G90" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="27" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C91" s="27" t="str">
         <f>C75</f>
@@ -2609,82 +2731,88 @@
         <f>0.319/948.45138280892</f>
         <v>3.363377457000001E-4</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F91" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="F91" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G91" s="27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>138</v>
-      </c>
-      <c r="C92" t="s">
-        <v>54</v>
-      </c>
-      <c r="D92" s="14">
+      <c r="H91" s="27"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D92" s="33">
         <v>73.250026790475331</v>
       </c>
-      <c r="F92" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="E92" s="27"/>
+      <c r="F92" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G92" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H92" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>192</v>
-      </c>
-      <c r="C93" t="s">
-        <v>54</v>
-      </c>
-      <c r="D93" s="14">
+      <c r="H92" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" s="27"/>
+      <c r="C93" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D93" s="33">
         <v>16.43865381141773</v>
       </c>
-      <c r="F93" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="E93" s="27"/>
+      <c r="F93" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G93" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H93" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="B94" t="s">
-        <v>193</v>
-      </c>
-      <c r="C94" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="27">
         <f>'Natural gas credit AD'!B44</f>
         <v>0</v>
       </c>
-      <c r="E94" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G94" t="s">
-        <v>69</v>
-      </c>
+      <c r="E94" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="F94" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G94" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H94" s="27"/>
       <c r="I94" s="16"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>2</v>
       </c>
@@ -2699,15 +2827,15 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>4</v>
       </c>
@@ -2722,7 +2850,7 @@
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>6</v>
       </c>
@@ -2737,7 +2865,7 @@
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>7</v>
       </c>
@@ -2752,12 +2880,12 @@
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>10</v>
       </c>
@@ -2786,7 +2914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f>B98</f>
         <v>Landfill_saint_thomas</v>
@@ -2805,141 +2933,148 @@
       </c>
       <c r="F106" t="str">
         <f>$B$1</f>
-        <v>OWM LCA</v>
+        <v>OWM Facilities</v>
       </c>
       <c r="G106" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D107" s="14">
+      <c r="D107" s="33">
         <f>Transportation!B6</f>
         <v>59.6</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F107" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G107" t="s">
+      <c r="F107" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G107" s="27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H107" s="27"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="27" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="C108" t="str">
+        <v>176</v>
+      </c>
+      <c r="C108" s="27" t="str">
         <f>C91</f>
         <v>megajoule</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="27">
         <f>D91</f>
         <v>3.363377457000001E-4</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F108" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G108" t="s">
+      <c r="F108" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G108" s="27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>138</v>
-      </c>
-      <c r="C109" t="s">
-        <v>54</v>
-      </c>
-      <c r="D109" s="14">
+      <c r="H108" s="27"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B109" s="27"/>
+      <c r="C109" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D109" s="33">
         <v>73.250026790475331</v>
       </c>
-      <c r="F109" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G109" t="s">
+      <c r="E109" s="27"/>
+      <c r="F109" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G109" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H109" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>192</v>
-      </c>
-      <c r="C110" t="s">
-        <v>54</v>
-      </c>
-      <c r="D110" s="14">
+      <c r="H109" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B110" s="27"/>
+      <c r="C110" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D110" s="33">
         <v>16.43865381141773</v>
       </c>
-      <c r="F110" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G110" t="s">
+      <c r="E110" s="27"/>
+      <c r="F110" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G110" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H110" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="B111" t="s">
-        <v>193</v>
-      </c>
-      <c r="C111" t="s">
+        <v>189</v>
+      </c>
+      <c r="B111" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C111" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="27">
         <f>'Natural gas credit AD'!B61</f>
         <v>0</v>
       </c>
-      <c r="E111" t="s">
-        <v>5</v>
-      </c>
-      <c r="F111" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G111" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E111" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="F111" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G111" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H111" s="27"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D112" s="10"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D113" s="11"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D114" s="11"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D115" s="11"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D116" s="11"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>2</v>
       </c>
@@ -2954,15 +3089,15 @@
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>4</v>
       </c>
@@ -2977,7 +3112,7 @@
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>6</v>
       </c>
@@ -2992,7 +3127,7 @@
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>7</v>
       </c>
@@ -3007,13 +3142,13 @@
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I123" s="15"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>10</v>
       </c>
@@ -3042,7 +3177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f>B117</f>
         <v>Landfill_lachute</v>
@@ -3061,126 +3196,132 @@
       </c>
       <c r="F125" t="str">
         <f>$B$1</f>
-        <v>OWM LCA</v>
+        <v>OWM Facilities</v>
       </c>
       <c r="G125" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D126" s="14">
+      <c r="D126" s="33">
         <f>Transportation!B7</f>
         <v>77.400000000000006</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F126" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G126" t="s">
+      <c r="F126" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G126" s="27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H126" s="27"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="27" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="C127" t="s">
-        <v>74</v>
-      </c>
-      <c r="D127">
+        <v>176</v>
+      </c>
+      <c r="C127" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D127" s="27">
         <f>D108</f>
         <v>3.363377457000001E-4</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F127" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G127" t="s">
+      <c r="F127" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G127" s="27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>138</v>
-      </c>
-      <c r="C128" t="s">
-        <v>54</v>
-      </c>
-      <c r="D128" s="14">
+      <c r="H127" s="27"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B128" s="27"/>
+      <c r="C128" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D128" s="33">
         <v>73.250026790475331</v>
       </c>
-      <c r="F128" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G128" t="s">
+      <c r="E128" s="27"/>
+      <c r="F128" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G128" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H128" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>192</v>
-      </c>
-      <c r="C129" t="s">
-        <v>54</v>
-      </c>
-      <c r="D129" s="14">
+      <c r="H128" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B129" s="27"/>
+      <c r="C129" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D129" s="33">
         <v>16.43865381141773</v>
       </c>
-      <c r="F129" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G129" t="s">
+      <c r="E129" s="27"/>
+      <c r="F129" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G129" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H129" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D130" s="10">
-        <f>D146</f>
-        <v>79.220610553074465</v>
-      </c>
-      <c r="E130" t="s">
+      <c r="D130" s="27">
+        <f>-87.3257750709899*0.90718474</f>
+        <v>-79.220610553074465</v>
+      </c>
+      <c r="E130" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F130" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G130" t="str">
-        <f>G146</f>
-        <v>substitution</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F130" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G130" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H130" s="27"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>2</v>
       </c>
@@ -3195,15 +3336,15 @@
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B134" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>4</v>
       </c>
@@ -3218,7 +3359,7 @@
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>6</v>
       </c>
@@ -3233,7 +3374,7 @@
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>7</v>
       </c>
@@ -3248,12 +3389,12 @@
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>10</v>
       </c>
@@ -3282,7 +3423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f>B133</f>
         <v>Landfill_st-nicephore</v>
@@ -3301,13 +3442,13 @@
       </c>
       <c r="F141" t="str">
         <f>$B$1</f>
-        <v>OWM LCA</v>
+        <v>OWM Facilities</v>
       </c>
       <c r="G141" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>45</v>
       </c>
@@ -3324,102 +3465,108 @@
       <c r="E142" t="s">
         <v>47</v>
       </c>
-      <c r="F142" s="23" t="s">
-        <v>156</v>
+      <c r="F142" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="G142" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="27" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B143" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="C143" t="s">
-        <v>74</v>
-      </c>
-      <c r="D143" s="14">
+        <v>176</v>
+      </c>
+      <c r="C143" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D143" s="33">
         <v>3.363377457000001E-4</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F143" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G143" t="s">
+      <c r="F143" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G143" s="27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>138</v>
-      </c>
-      <c r="C144" t="s">
-        <v>54</v>
-      </c>
-      <c r="D144" s="14">
+      <c r="H143" s="27"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B144" s="27"/>
+      <c r="C144" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D144" s="33">
         <v>73.250026790475331</v>
       </c>
-      <c r="F144" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G144" t="s">
+      <c r="E144" s="27"/>
+      <c r="F144" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G144" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H144" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>192</v>
-      </c>
-      <c r="C145" t="s">
-        <v>54</v>
-      </c>
-      <c r="D145" s="14">
+      <c r="H144" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B145" s="27"/>
+      <c r="C145" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D145" s="33">
         <v>16.43865381141773</v>
       </c>
-      <c r="F145" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G145" t="s">
+      <c r="E145" s="27"/>
+      <c r="F145" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G145" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H145" t="s">
+      <c r="H145" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D146">
-        <f>87.3257750709899*0.90718474</f>
-        <v>79.220610553074465</v>
-      </c>
-      <c r="E146" t="str">
+      <c r="D146" s="27">
+        <f>-87.3257750709899*0.90718474</f>
+        <v>-79.220610553074465</v>
+      </c>
+      <c r="E146" s="27" t="str">
         <f>E141</f>
         <v>CA-QC</v>
       </c>
-      <c r="F146" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G146" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F146" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G146" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H146" s="27"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>2</v>
       </c>
@@ -3434,15 +3581,15 @@
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B150" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>4</v>
       </c>
@@ -3457,7 +3604,7 @@
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>6</v>
       </c>
@@ -3472,7 +3619,7 @@
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>7</v>
       </c>
@@ -3487,12 +3634,12 @@
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>10</v>
       </c>
@@ -3521,7 +3668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f>B149</f>
         <v>Landfill_cecile_de_milton</v>
@@ -3540,127 +3687,134 @@
       </c>
       <c r="F157" t="str">
         <f>$B$1</f>
-        <v>OWM LCA</v>
+        <v>OWM Facilities</v>
       </c>
       <c r="G157" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D158" s="14">
+      <c r="D158" s="33">
         <f>Transportation!B10</f>
         <v>86</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F158" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G158" t="s">
+      <c r="F158" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G158" s="27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H158" s="27"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="27" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B159" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="C159" t="s">
-        <v>74</v>
-      </c>
-      <c r="D159" s="14">
+        <v>176</v>
+      </c>
+      <c r="C159" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D159" s="33">
         <v>3.363377457000001E-4</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E159" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F159" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G159" t="s">
+      <c r="F159" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G159" s="27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>138</v>
-      </c>
-      <c r="C160" t="s">
-        <v>54</v>
-      </c>
-      <c r="D160" s="14">
+      <c r="H159" s="27"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B160" s="27"/>
+      <c r="C160" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D160" s="33">
         <f>'[1]Landfill LCA'!$M$23*0.90718474*1000</f>
         <v>73.250026790475331</v>
       </c>
-      <c r="F160" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G160" t="s">
+      <c r="E160" s="27"/>
+      <c r="F160" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G160" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H160" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>192</v>
-      </c>
-      <c r="C161" t="s">
-        <v>54</v>
-      </c>
-      <c r="D161" s="14">
+      <c r="H160" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B161" s="27"/>
+      <c r="C161" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D161" s="33">
         <f>'[1]Landfill LCA'!$W$27*0.90718474*1000</f>
         <v>16.43865381141773</v>
       </c>
-      <c r="F161" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G161" t="s">
+      <c r="E161" s="27"/>
+      <c r="F161" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G161" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H161" t="s">
+      <c r="H161" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D162">
-        <f>87.3257750709899*0.90718474</f>
-        <v>79.220610553074465</v>
-      </c>
-      <c r="E162" t="str">
+      <c r="D162" s="27">
+        <f>-87.3257750709899*0.90718474</f>
+        <v>-79.220610553074465</v>
+      </c>
+      <c r="E162" s="27" t="str">
         <f>E157</f>
         <v>CA-QC</v>
       </c>
-      <c r="F162" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G162" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F162" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G162" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H162" s="27"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>2</v>
       </c>
@@ -3675,15 +3829,15 @@
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B165" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>4</v>
       </c>
@@ -3698,7 +3852,7 @@
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>6</v>
       </c>
@@ -3713,7 +3867,7 @@
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>7</v>
       </c>
@@ -3728,12 +3882,12 @@
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>10</v>
       </c>
@@ -3762,7 +3916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
         <f>B164</f>
         <v>Composter_casselman</v>
@@ -3781,7 +3935,7 @@
       </c>
       <c r="F172" t="str">
         <f>$B$1</f>
-        <v>OWM LCA</v>
+        <v>OWM Facilities</v>
       </c>
       <c r="G172" t="s">
         <v>17</v>
@@ -3791,234 +3945,311 @@
         <v>33</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A173" s="9" t="s">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="27">
         <v>1.6772116902968379</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E173" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F173" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G173" t="s">
+      <c r="F173" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G173" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I173" t="s">
+      <c r="H173" s="27"/>
+      <c r="I173" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="27" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B174" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="C174" t="s">
-        <v>54</v>
-      </c>
-      <c r="D174" s="14">
-        <v>2532.25</v>
-      </c>
-      <c r="E174" t="s">
+        <v>202</v>
+      </c>
+      <c r="C174" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D174" s="33">
+        <v>2.5320055641349066</v>
+      </c>
+      <c r="E174" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F174" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G174" t="s">
+      <c r="F174" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G174" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I174" t="s">
+      <c r="H174" s="27"/>
+      <c r="I174" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D175" s="10">
+      <c r="D175" s="30">
         <f>Transportation!B11</f>
         <v>170</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E175" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F175" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G175" t="s">
+      <c r="F175" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G175" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I175" t="s">
+      <c r="H175" s="27"/>
+      <c r="I175" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="27">
         <v>7.28915519494213</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E176" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F176" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G176" t="s">
+      <c r="F176" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G176" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I176" t="s">
+      <c r="H176" s="27"/>
+      <c r="I176" s="27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C177" t="s">
-        <v>54</v>
-      </c>
-      <c r="D177">
+      <c r="B177" s="27"/>
+      <c r="C177" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D177" s="27">
         <v>5.6135340059469772E-4</v>
       </c>
-      <c r="F177" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G177" t="s">
+      <c r="E177" s="27"/>
+      <c r="F177" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G177" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H177" t="s">
+      <c r="H177" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I177" t="s">
+      <c r="I177" s="27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C178" t="s">
-        <v>54</v>
-      </c>
-      <c r="D178">
+      <c r="B178" s="27"/>
+      <c r="C178" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D178" s="27">
         <v>1.3472481614272745E-5</v>
       </c>
-      <c r="F178" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G178" t="s">
+      <c r="E178" s="27"/>
+      <c r="F178" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G178" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H178" t="s">
+      <c r="H178" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I178" t="s">
+      <c r="I178" s="27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C179" t="s">
-        <v>54</v>
-      </c>
-      <c r="D179" s="10">
+      <c r="B179" s="27"/>
+      <c r="C179" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D179" s="30">
         <v>2.6570727628149027E-3</v>
       </c>
-      <c r="F179" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G179" t="s">
+      <c r="E179" s="27"/>
+      <c r="F179" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G179" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H179" t="s">
+      <c r="H179" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I179" t="s">
+      <c r="I179" s="27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="B180" s="27"/>
+      <c r="C180" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D180" s="32">
+        <v>1.0852832411497491E-3</v>
+      </c>
+      <c r="E180" s="27"/>
+      <c r="F180" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G180" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H180" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="I180" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C181" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D181" s="27">
+        <v>0.29528799999999999</v>
+      </c>
+      <c r="E181" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F181" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G181" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C180" t="s">
-        <v>54</v>
-      </c>
-      <c r="D180" s="11">
-        <v>1.0852832411497491E-3</v>
-      </c>
-      <c r="F180" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G180" t="s">
-        <v>60</v>
-      </c>
-      <c r="H180" t="s">
-        <v>61</v>
-      </c>
-      <c r="I180" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D181" s="12"/>
-      <c r="F181" s="23"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F182" s="23"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F183" s="23"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H181" s="27"/>
+      <c r="I181" s="27"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C182" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D182" s="27">
+        <v>0.168736</v>
+      </c>
+      <c r="E182" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F182" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G182" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H182" s="27"/>
+      <c r="I182" s="27"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B183" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C183" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D183" s="27">
+        <v>0.253104</v>
+      </c>
+      <c r="E183" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F183" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G183" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H183" s="27"/>
+      <c r="I183" s="27"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D184" s="10"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D185" s="10"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D186" s="11"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B187" s="11"/>
       <c r="D187" s="12"/>
-      <c r="F187" s="23"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F188" s="23"/>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F189" s="23"/>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F187" s="22"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F188" s="22"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F189" s="22"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>2</v>
       </c>
@@ -4033,15 +4264,15 @@
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B192" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>4</v>
       </c>
@@ -4056,7 +4287,7 @@
       <c r="H193" s="5"/>
       <c r="I193" s="5"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>6</v>
       </c>
@@ -4071,7 +4302,7 @@
       <c r="H194" s="5"/>
       <c r="I194" s="5"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>7</v>
       </c>
@@ -4086,12 +4317,12 @@
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>10</v>
       </c>
@@ -4120,7 +4351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="str">
         <f>B191</f>
         <v>Composter_complexe enviro st Michel</v>
@@ -4139,7 +4370,7 @@
       </c>
       <c r="F199" t="str">
         <f>$B$1</f>
-        <v>OWM LCA</v>
+        <v>OWM Facilities</v>
       </c>
       <c r="G199" t="s">
         <v>17</v>
@@ -4149,7 +4380,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>34</v>
       </c>
@@ -4165,8 +4396,8 @@
       <c r="E200" t="s">
         <v>5</v>
       </c>
-      <c r="F200" s="23" t="s">
-        <v>156</v>
+      <c r="F200" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="G200" t="s">
         <v>19</v>
@@ -4175,24 +4406,24 @@
         <v>37</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="27" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B201" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="C201" t="s">
-        <v>54</v>
-      </c>
-      <c r="D201" s="14">
-        <v>2532.25</v>
-      </c>
-      <c r="E201" t="s">
+        <v>202</v>
+      </c>
+      <c r="C201" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D201" s="33">
+        <v>2.5320055641349066</v>
+      </c>
+      <c r="E201" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F201" s="23" t="s">
-        <v>156</v>
+      <c r="F201" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="G201" t="s">
         <v>19</v>
@@ -4201,7 +4432,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>45</v>
       </c>
@@ -4218,8 +4449,8 @@
       <c r="E202" t="s">
         <v>47</v>
       </c>
-      <c r="F202" s="23" t="s">
-        <v>156</v>
+      <c r="F202" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="G202" t="s">
         <v>19</v>
@@ -4228,155 +4459,229 @@
         <v>37</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D203">
+      <c r="D203" s="27">
         <v>7.28915519494213</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E203" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F203" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G203" t="s">
+      <c r="F203" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G203" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I203" t="s">
+      <c r="H203" s="27"/>
+      <c r="I203" s="27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C204" t="s">
-        <v>54</v>
-      </c>
-      <c r="D204">
+      <c r="B204" s="27"/>
+      <c r="C204" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D204" s="27">
         <v>5.6135340059469772E-4</v>
       </c>
-      <c r="F204" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G204" t="s">
+      <c r="E204" s="27"/>
+      <c r="F204" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G204" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H204" t="s">
+      <c r="H204" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I204" t="s">
+      <c r="I204" s="27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C205" t="s">
-        <v>54</v>
-      </c>
-      <c r="D205">
+      <c r="B205" s="27"/>
+      <c r="C205" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D205" s="27">
         <v>1.3472481614272745E-5</v>
       </c>
-      <c r="F205" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G205" t="s">
+      <c r="E205" s="27"/>
+      <c r="F205" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G205" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H205" t="s">
+      <c r="H205" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I205" t="s">
+      <c r="I205" s="27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C206" t="s">
-        <v>54</v>
-      </c>
-      <c r="D206" s="10">
+      <c r="B206" s="27"/>
+      <c r="C206" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D206" s="30">
         <v>2.6570727628149027E-3</v>
       </c>
-      <c r="F206" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G206" t="s">
+      <c r="E206" s="27"/>
+      <c r="F206" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G206" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H206" t="s">
+      <c r="H206" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I206" t="s">
+      <c r="I206" s="27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="B207" s="27"/>
+      <c r="C207" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D207" s="32">
+        <v>1.0852832411497491E-3</v>
+      </c>
+      <c r="E207" s="27"/>
+      <c r="F207" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G207" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H207" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="I207" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B208" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C208" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D208" s="27">
+        <v>0.29528799999999999</v>
+      </c>
+      <c r="E208" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F208" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G208" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C207" t="s">
-        <v>54</v>
-      </c>
-      <c r="D207" s="11">
-        <v>1.0852832411497491E-3</v>
-      </c>
-      <c r="F207" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G207" t="s">
-        <v>60</v>
-      </c>
-      <c r="H207" t="s">
-        <v>61</v>
-      </c>
-      <c r="I207" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D208" s="12"/>
-      <c r="F208" s="23"/>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F209" s="23"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F210" s="23"/>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H208" s="27"/>
+      <c r="I208" s="27"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="B209" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C209" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D209" s="27">
+        <v>0.168736</v>
+      </c>
+      <c r="E209" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F209" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G209" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H209" s="27"/>
+      <c r="I209" s="27"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B210" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C210" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D210" s="27">
+        <v>0.253104</v>
+      </c>
+      <c r="E210" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F210" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G210" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H210" s="27"/>
+      <c r="I210" s="27"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D211" s="10"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D212" s="10"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D213" s="11"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B214" s="11"/>
       <c r="D214" s="12"/>
-      <c r="F214" s="23"/>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F215" s="23"/>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F216" s="23"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F214" s="22"/>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F215" s="22"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F216" s="22"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>2</v>
       </c>
@@ -4391,15 +4696,15 @@
       <c r="H218" s="2"/>
       <c r="I218" s="2"/>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B219" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>4</v>
       </c>
@@ -4414,7 +4719,7 @@
       <c r="H220" s="5"/>
       <c r="I220" s="5"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>6</v>
       </c>
@@ -4429,7 +4734,7 @@
       <c r="H221" s="5"/>
       <c r="I221" s="5"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>7</v>
       </c>
@@ -4444,12 +4749,12 @@
       <c r="H222" s="5"/>
       <c r="I222" s="5"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>10</v>
       </c>
@@ -4478,7 +4783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>27</v>
       </c>
@@ -4496,7 +4801,7 @@
       </c>
       <c r="F226" t="str">
         <f>$B$1</f>
-        <v>OWM LCA</v>
+        <v>OWM Facilities</v>
       </c>
       <c r="G226" t="s">
         <v>17</v>
@@ -4506,7 +4811,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
         <v>34</v>
       </c>
@@ -4522,8 +4827,8 @@
       <c r="E227" t="s">
         <v>5</v>
       </c>
-      <c r="F227" s="23" t="s">
-        <v>156</v>
+      <c r="F227" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="G227" t="s">
         <v>19</v>
@@ -4532,24 +4837,24 @@
         <v>37</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="27" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B228" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="C228" t="s">
-        <v>54</v>
-      </c>
-      <c r="D228" s="14">
-        <v>2532.25</v>
-      </c>
-      <c r="E228" t="s">
+        <v>202</v>
+      </c>
+      <c r="C228" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D228" s="33">
+        <v>2.5320055641349066</v>
+      </c>
+      <c r="E228" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F228" s="23" t="s">
-        <v>156</v>
+      <c r="F228" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="G228" t="s">
         <v>19</v>
@@ -4558,7 +4863,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>45</v>
       </c>
@@ -4575,8 +4880,8 @@
       <c r="E229" t="s">
         <v>47</v>
       </c>
-      <c r="F229" s="23" t="s">
-        <v>156</v>
+      <c r="F229" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="G229" t="s">
         <v>19</v>
@@ -4585,7 +4890,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>195</v>
       </c>
@@ -4601,8 +4906,8 @@
       <c r="E230" t="s">
         <v>5</v>
       </c>
-      <c r="F230" s="23" t="s">
-        <v>156</v>
+      <c r="F230" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="G230" t="s">
         <v>19</v>
@@ -4611,7 +4916,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>63</v>
       </c>
@@ -4621,8 +4926,8 @@
       <c r="D231">
         <v>5.6135340059469772E-4</v>
       </c>
-      <c r="F231" s="23" t="s">
-        <v>196</v>
+      <c r="F231" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="G231" t="s">
         <v>60</v>
@@ -4634,7 +4939,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>65</v>
       </c>
@@ -4644,8 +4949,8 @@
       <c r="D232">
         <v>1.3472481614272745E-5</v>
       </c>
-      <c r="F232" s="23" t="s">
-        <v>196</v>
+      <c r="F232" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="G232" t="s">
         <v>60</v>
@@ -4657,7 +4962,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>67</v>
       </c>
@@ -4667,8 +4972,8 @@
       <c r="D233" s="10">
         <v>2.6570727628149027E-3</v>
       </c>
-      <c r="F233" s="23" t="s">
-        <v>196</v>
+      <c r="F233" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="G233" t="s">
         <v>60</v>
@@ -4680,40 +4985,107 @@
         <v>33</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="B234" s="27"/>
+      <c r="C234" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D234" s="32">
+        <v>1.0852832411497491E-3</v>
+      </c>
+      <c r="E234" s="27"/>
+      <c r="F234" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G234" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H234" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="I234" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B235" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C235" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D235" s="27">
+        <v>0.29528799999999999</v>
+      </c>
+      <c r="E235" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F235" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G235" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C234" t="s">
-        <v>54</v>
-      </c>
-      <c r="D234" s="11">
-        <v>1.0852832411497491E-3</v>
-      </c>
-      <c r="F234" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G234" t="s">
-        <v>60</v>
-      </c>
-      <c r="H234" t="s">
-        <v>61</v>
-      </c>
-      <c r="I234" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D235" s="12"/>
-      <c r="F235" s="23"/>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F236" s="23"/>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F237" s="23"/>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H235" s="27"/>
+      <c r="I235" s="27"/>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="B236" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C236" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D236" s="27">
+        <v>0.168736</v>
+      </c>
+      <c r="E236" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F236" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G236" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H236" s="27"/>
+      <c r="I236" s="27"/>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B237" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C237" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D237" s="27">
+        <v>0.253104</v>
+      </c>
+      <c r="E237" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F237" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G237" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H237" s="27"/>
+      <c r="I237" s="27"/>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>2</v>
       </c>
@@ -4728,15 +5100,15 @@
       <c r="H239" s="2"/>
       <c r="I239" s="2"/>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B240" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
         <v>4</v>
       </c>
@@ -4751,7 +5123,7 @@
       <c r="H241" s="5"/>
       <c r="I241" s="5"/>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
         <v>6</v>
       </c>
@@ -4766,7 +5138,7 @@
       <c r="H242" s="5"/>
       <c r="I242" s="5"/>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
         <v>7</v>
       </c>
@@ -4781,12 +5153,12 @@
       <c r="H243" s="5"/>
       <c r="I243" s="5"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>10</v>
       </c>
@@ -4815,7 +5187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="str">
         <f>B239</f>
         <v>Composter_saint thomas</v>
@@ -4834,7 +5206,7 @@
       </c>
       <c r="F247" t="str">
         <f>$B$1</f>
-        <v>OWM LCA</v>
+        <v>OWM Facilities</v>
       </c>
       <c r="G247" t="s">
         <v>17</v>
@@ -4844,7 +5216,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
         <v>34</v>
       </c>
@@ -4860,8 +5232,8 @@
       <c r="E248" t="s">
         <v>5</v>
       </c>
-      <c r="F248" s="23" t="s">
-        <v>156</v>
+      <c r="F248" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="G248" t="s">
         <v>19</v>
@@ -4870,24 +5242,24 @@
         <v>37</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="27" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B249" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="C249" t="s">
-        <v>54</v>
-      </c>
-      <c r="D249" s="14">
-        <v>2532.25</v>
-      </c>
-      <c r="E249" t="s">
+        <v>202</v>
+      </c>
+      <c r="C249" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D249" s="33">
+        <v>2.5320055641349066</v>
+      </c>
+      <c r="E249" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F249" s="23" t="s">
-        <v>156</v>
+      <c r="F249" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="G249" t="s">
         <v>19</v>
@@ -4896,7 +5268,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>45</v>
       </c>
@@ -4913,8 +5285,8 @@
       <c r="E250" t="s">
         <v>47</v>
       </c>
-      <c r="F250" s="23" t="s">
-        <v>156</v>
+      <c r="F250" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="G250" t="s">
         <v>19</v>
@@ -4923,7 +5295,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>195</v>
       </c>
@@ -4939,8 +5311,8 @@
       <c r="E251" t="s">
         <v>5</v>
       </c>
-      <c r="F251" s="23" t="s">
-        <v>156</v>
+      <c r="F251" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="G251" t="s">
         <v>19</v>
@@ -4949,7 +5321,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>63</v>
       </c>
@@ -4959,8 +5331,8 @@
       <c r="D252">
         <v>5.6135340059469772E-4</v>
       </c>
-      <c r="F252" s="23" t="s">
-        <v>196</v>
+      <c r="F252" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="G252" t="s">
         <v>60</v>
@@ -4972,7 +5344,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>65</v>
       </c>
@@ -4982,8 +5354,8 @@
       <c r="D253">
         <v>1.3472481614272745E-5</v>
       </c>
-      <c r="F253" s="23" t="s">
-        <v>196</v>
+      <c r="F253" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="G253" t="s">
         <v>60</v>
@@ -4995,7 +5367,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>67</v>
       </c>
@@ -5005,8 +5377,8 @@
       <c r="D254" s="10">
         <v>2.6570727628149027E-3</v>
       </c>
-      <c r="F254" s="23" t="s">
-        <v>196</v>
+      <c r="F254" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="G254" t="s">
         <v>60</v>
@@ -5018,1387 +5390,1137 @@
         <v>33</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A255" t="s">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="B255" s="27"/>
+      <c r="C255" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D255" s="32">
+        <v>1.0852832411497491E-3</v>
+      </c>
+      <c r="E255" s="27"/>
+      <c r="F255" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G255" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H255" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="I255" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B256" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C256" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D256" s="27">
+        <v>0.29528799999999999</v>
+      </c>
+      <c r="E256" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F256" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G256" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C255" t="s">
-        <v>54</v>
-      </c>
-      <c r="D255" s="11">
-        <v>1.0852832411497491E-3</v>
-      </c>
-      <c r="F255" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G255" t="s">
+      <c r="H256" s="27"/>
+      <c r="I256" s="27"/>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="B257" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C257" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D257" s="27">
+        <v>0.168736</v>
+      </c>
+      <c r="E257" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F257" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G257" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H257" s="27"/>
+      <c r="I257" s="27"/>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B258" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C258" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D258" s="27">
+        <v>0.253104</v>
+      </c>
+      <c r="E258" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F258" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G258" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H258" s="27"/>
+      <c r="I258" s="27"/>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D259" s="10"/>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D260" s="10"/>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D261" s="11"/>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C264" s="2"/>
+      <c r="D264" s="2"/>
+      <c r="E264" s="2"/>
+      <c r="F264" s="2"/>
+      <c r="G264" s="2"/>
+      <c r="H264" s="2"/>
+      <c r="I264" s="2"/>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B265" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C266" s="5"/>
+      <c r="D266" s="5"/>
+      <c r="E266" s="5"/>
+      <c r="F266" s="5"/>
+      <c r="G266" s="5"/>
+      <c r="H266" s="5"/>
+      <c r="I266" s="5"/>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B267" s="6">
+        <v>1</v>
+      </c>
+      <c r="C267" s="5"/>
+      <c r="D267" s="5"/>
+      <c r="E267" s="5"/>
+      <c r="F267" s="5"/>
+      <c r="G267" s="5"/>
+      <c r="H267" s="5"/>
+      <c r="I267" s="5"/>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B268" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C268" s="5"/>
+      <c r="D268" s="5"/>
+      <c r="E268" s="5"/>
+      <c r="F268" s="5"/>
+      <c r="G268" s="5"/>
+      <c r="H268" s="5"/>
+      <c r="I268" s="5"/>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D271" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G271" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H271" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I271" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272" s="35" t="str">
+        <f>B264</f>
+        <v>lewerenz_Open Composter</v>
+      </c>
+      <c r="B272" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C272" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D272" s="36">
+        <v>1</v>
+      </c>
+      <c r="E272" s="35" t="str">
+        <f>B266</f>
+        <v>CA-QC</v>
+      </c>
+      <c r="F272" s="35" t="str">
+        <f>$B$1</f>
+        <v>OWM Facilities</v>
+      </c>
+      <c r="G272" t="s">
+        <v>17</v>
+      </c>
+      <c r="H272" s="3"/>
+      <c r="I272" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A273" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B273" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C273" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D273" s="37">
+        <f>0.0045*1000</f>
+        <v>4.5</v>
+      </c>
+      <c r="E273" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F273" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="G273" t="s">
+        <v>19</v>
+      </c>
+      <c r="I273" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B274" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C274" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D274" s="37">
+        <f>0.000213066494623584*1000</f>
+        <v>0.21306649462358399</v>
+      </c>
+      <c r="E274" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F274" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="G274" t="s">
+        <v>19</v>
+      </c>
+      <c r="I274" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B275" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C275" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D275" s="37">
+        <f>0.015*1000</f>
+        <v>15</v>
+      </c>
+      <c r="E275" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F275" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="G275" t="s">
+        <v>19</v>
+      </c>
+      <c r="I275" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B276" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C276" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D276" s="37">
+        <f>0.017*1000</f>
+        <v>17</v>
+      </c>
+      <c r="E276" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F276" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="G276" t="s">
+        <v>19</v>
+      </c>
+      <c r="I276" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B277" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C277" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D277" s="37">
+        <f>0.0000000040014*1000</f>
+        <v>4.0013999999999995E-6</v>
+      </c>
+      <c r="E277" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F277" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="G277" t="s">
+        <v>19</v>
+      </c>
+      <c r="I277" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A278" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B278" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C278" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D278" s="37">
+        <f>0.0000185*1000</f>
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="E278" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F278" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="G278" t="s">
+        <v>19</v>
+      </c>
+      <c r="I278" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A279" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B279" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C279" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D279" s="37">
+        <f>0.000225*1000</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E279" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F279" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="G279" t="s">
+        <v>19</v>
+      </c>
+      <c r="I279" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>59</v>
+      </c>
+      <c r="C280" t="s">
+        <v>57</v>
+      </c>
+      <c r="D280" s="10">
+        <f>0.000125*1000</f>
+        <v>0.125</v>
+      </c>
+      <c r="F280" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G280" t="s">
         <v>60</v>
       </c>
-      <c r="H255" t="s">
+      <c r="H280" t="s">
+        <v>59</v>
+      </c>
+      <c r="I280" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>63</v>
+      </c>
+      <c r="C281" t="s">
+        <v>54</v>
+      </c>
+      <c r="D281" s="11">
+        <f>1000*0.0007116</f>
+        <v>0.7115999999999999</v>
+      </c>
+      <c r="F281" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G281" t="s">
+        <v>60</v>
+      </c>
+      <c r="H281" t="s">
         <v>61</v>
       </c>
-      <c r="I255" t="s">
+      <c r="I281" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D256" s="12"/>
-      <c r="F256" s="23"/>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F257" s="23"/>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F258" s="23"/>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D259" s="10"/>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D260" s="10"/>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D261" s="11"/>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B262" s="11"/>
-      <c r="D262" s="12"/>
-      <c r="F262" s="23"/>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F263" s="23"/>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F264" s="23"/>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A265" s="3"/>
-      <c r="B265" s="3"/>
-      <c r="C265" s="3"/>
-      <c r="D265" s="8"/>
-      <c r="E265" s="3"/>
-      <c r="F265" s="3"/>
-      <c r="G265" s="3"/>
-      <c r="H265" s="3"/>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A303" s="1" t="s">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>64</v>
+      </c>
+      <c r="C282" t="s">
+        <v>54</v>
+      </c>
+      <c r="D282" s="10">
+        <f>1000*0.09793</f>
+        <v>97.93</v>
+      </c>
+      <c r="F282" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G282" t="s">
+        <v>60</v>
+      </c>
+      <c r="H282" t="s">
+        <v>61</v>
+      </c>
+      <c r="I282" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>65</v>
+      </c>
+      <c r="C283" t="s">
+        <v>54</v>
+      </c>
+      <c r="D283" s="10">
+        <f>1000*0.00015225</f>
+        <v>0.15225</v>
+      </c>
+      <c r="F283" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G283" t="s">
+        <v>60</v>
+      </c>
+      <c r="H283" t="s">
+        <v>61</v>
+      </c>
+      <c r="I283" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A289" s="27"/>
+      <c r="B289" s="27"/>
+      <c r="C289" s="40"/>
+      <c r="D289" s="39"/>
+      <c r="E289" s="27"/>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B303" t="s">
-        <v>108</v>
-      </c>
-      <c r="C303" s="2"/>
-      <c r="D303" s="2"/>
-      <c r="E303" s="2"/>
-      <c r="F303" s="2"/>
-      <c r="G303" s="2"/>
-      <c r="H303" s="2"/>
-      <c r="I303" s="2"/>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A304" s="3" t="s">
+      <c r="B292" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C292" s="2"/>
+      <c r="D292" s="2"/>
+      <c r="E292" s="2"/>
+      <c r="F292" s="2"/>
+      <c r="G292" s="2"/>
+      <c r="H292" s="2"/>
+      <c r="I292" s="2"/>
+    </row>
+    <row r="293" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A293" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B304" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A305" s="4" t="s">
+      <c r="B293" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A294" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B305" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C305" s="5"/>
-      <c r="D305" s="5"/>
-      <c r="E305" s="5"/>
-      <c r="F305" s="5"/>
-      <c r="G305" s="5"/>
-      <c r="H305" s="5"/>
-      <c r="I305" s="5"/>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A306" s="4" t="s">
+      <c r="B294" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C294" s="5"/>
+      <c r="D294" s="5"/>
+      <c r="E294" s="5"/>
+      <c r="F294" s="5"/>
+      <c r="G294" s="5"/>
+      <c r="H294" s="5"/>
+      <c r="I294" s="5"/>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A295" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B306" s="6">
+      <c r="B295" s="6">
         <v>1</v>
       </c>
-      <c r="C306" s="5"/>
-      <c r="D306" s="5"/>
-      <c r="E306" s="5"/>
-      <c r="F306" s="5"/>
-      <c r="G306" s="5"/>
-      <c r="H306" s="5"/>
-      <c r="I306" s="5"/>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A307" s="4" t="s">
+      <c r="C295" s="5"/>
+      <c r="D295" s="5"/>
+      <c r="E295" s="5"/>
+      <c r="F295" s="5"/>
+      <c r="G295" s="5"/>
+      <c r="H295" s="5"/>
+      <c r="I295" s="5"/>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A296" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B307" s="7" t="s">
+      <c r="B296" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C307" s="5"/>
-      <c r="D307" s="5"/>
-      <c r="E307" s="5"/>
-      <c r="F307" s="5"/>
-      <c r="G307" s="5"/>
-      <c r="H307" s="5"/>
-      <c r="I307" s="5"/>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A309" s="3" t="s">
+      <c r="C296" s="5"/>
+      <c r="D296" s="5"/>
+      <c r="E296" s="5"/>
+      <c r="F296" s="5"/>
+      <c r="G296" s="5"/>
+      <c r="H296" s="5"/>
+      <c r="I296" s="5"/>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A298" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A310" s="3" t="s">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A299" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B310" s="3" t="s">
+      <c r="B299" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C310" s="3" t="s">
+      <c r="C299" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D310" s="8" t="s">
+      <c r="D299" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E310" s="3" t="s">
+      <c r="E299" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F310" s="3" t="s">
+      <c r="F299" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G310" s="3" t="s">
+      <c r="G299" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H310" s="3" t="s">
+      <c r="H299" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I310" t="s">
+      <c r="I299" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A311" t="str">
-        <f>B303</f>
-        <v>Open Compost</v>
-      </c>
-      <c r="B311" t="s">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A300" t="str">
+        <f>B292</f>
+        <v>NS_compost</v>
+      </c>
+      <c r="B300" t="s">
         <v>16</v>
       </c>
-      <c r="C311" t="s">
+      <c r="C300" t="s">
         <v>8</v>
       </c>
-      <c r="D311">
+      <c r="D300">
         <v>1</v>
       </c>
-      <c r="E311" t="s">
-        <v>5</v>
-      </c>
-      <c r="F311" t="s">
+      <c r="E300" t="str">
+        <f>B294</f>
+        <v>CA-NS</v>
+      </c>
+      <c r="F300" t="str">
+        <f>B1</f>
+        <v>OWM Facilities</v>
+      </c>
+      <c r="G300" t="s">
+        <v>17</v>
+      </c>
+      <c r="I300" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>34</v>
+      </c>
+      <c r="B301" t="s">
+        <v>35</v>
+      </c>
+      <c r="C301" t="s">
+        <v>36</v>
+      </c>
+      <c r="D301">
+        <v>27.42983199561294</v>
+      </c>
+      <c r="E301" t="str">
+        <f>E300</f>
+        <v>CA-NS</v>
+      </c>
+      <c r="F301" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G301" t="s">
+        <v>19</v>
+      </c>
+      <c r="I301" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A302" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="B302" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="C302" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D302">
+        <v>3.34</v>
+      </c>
+      <c r="E302" t="s">
+        <v>50</v>
+      </c>
+      <c r="F302" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G302" t="s">
+        <v>19</v>
+      </c>
+      <c r="I302" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>65</v>
+      </c>
+      <c r="C303" t="s">
+        <v>54</v>
+      </c>
+      <c r="D303">
+        <v>8.9947155890124133</v>
+      </c>
+      <c r="F303" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G303" t="s">
+        <v>60</v>
+      </c>
+      <c r="H303" t="s">
+        <v>61</v>
+      </c>
+      <c r="I303" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>67</v>
+      </c>
+      <c r="C304" t="s">
+        <v>54</v>
+      </c>
+      <c r="D304">
+        <v>5.6084551000000003E-2</v>
+      </c>
+      <c r="F304" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G304" t="s">
+        <v>60</v>
+      </c>
+      <c r="H304" t="s">
+        <v>61</v>
+      </c>
+      <c r="I304" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>64</v>
+      </c>
+      <c r="C305" t="s">
+        <v>54</v>
+      </c>
+      <c r="D305" s="10">
+        <v>34.182910409999998</v>
+      </c>
+      <c r="F305" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G305" t="s">
+        <v>60</v>
+      </c>
+      <c r="H305" t="s">
+        <v>61</v>
+      </c>
+      <c r="I305" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>182</v>
+      </c>
+      <c r="B306" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C306" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D306" s="27">
+        <v>1.7807999999999999</v>
+      </c>
+      <c r="E306" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F306" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G306" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>183</v>
+      </c>
+      <c r="B307" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C307" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D307" s="27">
+        <v>1.0176000000000001</v>
+      </c>
+      <c r="E307" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F307" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G307" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>198</v>
+      </c>
+      <c r="B308" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C308" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D308" s="27">
+        <v>1.5264</v>
+      </c>
+      <c r="E308" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F308" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G308" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C310" s="2"/>
+      <c r="D310" s="2"/>
+      <c r="E310" s="2"/>
+      <c r="F310" s="2"/>
+      <c r="G310" s="2"/>
+      <c r="H310" s="2"/>
+      <c r="I310" s="2"/>
+    </row>
+    <row r="311" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A311" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B311" s="26" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C312" s="5"/>
+      <c r="D312" s="5"/>
+      <c r="E312" s="5"/>
+      <c r="F312" s="5"/>
+      <c r="G312" s="5"/>
+      <c r="H312" s="5"/>
+      <c r="I312" s="5"/>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A313" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B313" s="6">
         <v>1</v>
       </c>
-      <c r="G311" t="s">
+      <c r="C313" s="5"/>
+      <c r="D313" s="5"/>
+      <c r="E313" s="5"/>
+      <c r="F313" s="5"/>
+      <c r="G313" s="5"/>
+      <c r="H313" s="5"/>
+      <c r="I313" s="5"/>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A314" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B314" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C314" s="5"/>
+      <c r="D314" s="5"/>
+      <c r="E314" s="5"/>
+      <c r="F314" s="5"/>
+      <c r="G314" s="5"/>
+      <c r="H314" s="5"/>
+      <c r="I314" s="5"/>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A316" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A317" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D317" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F317" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G317" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H317" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I317" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A318" t="str">
+        <f>B310</f>
+        <v>NS_AD</v>
+      </c>
+      <c r="B318" t="s">
+        <v>16</v>
+      </c>
+      <c r="C318" t="s">
+        <v>8</v>
+      </c>
+      <c r="D318">
+        <v>1</v>
+      </c>
+      <c r="E318" t="str">
+        <f>B312</f>
+        <v>CA-NS</v>
+      </c>
+      <c r="F318" t="s">
+        <v>1</v>
+      </c>
+      <c r="G318" t="s">
         <v>17</v>
-      </c>
-      <c r="I311" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A312" t="s">
-        <v>34</v>
-      </c>
-      <c r="B312" t="s">
-        <v>35</v>
-      </c>
-      <c r="C312" t="s">
-        <v>36</v>
-      </c>
-      <c r="D312">
-        <v>1.6772116902968379</v>
-      </c>
-      <c r="E312" t="s">
-        <v>5</v>
-      </c>
-      <c r="F312" t="s">
-        <v>156</v>
-      </c>
-      <c r="G312" t="s">
-        <v>19</v>
-      </c>
-      <c r="I312" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A313" t="s">
-        <v>190</v>
-      </c>
-      <c r="B313" t="s">
-        <v>182</v>
-      </c>
-      <c r="C313" t="s">
-        <v>54</v>
-      </c>
-      <c r="D313">
-        <f>2.894*875</f>
-        <v>2532.25</v>
-      </c>
-      <c r="E313" t="s">
-        <v>50</v>
-      </c>
-      <c r="F313" t="s">
-        <v>156</v>
-      </c>
-      <c r="G313" t="s">
-        <v>19</v>
-      </c>
-      <c r="I313" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A314" t="s">
-        <v>195</v>
-      </c>
-      <c r="B314" t="s">
-        <v>56</v>
-      </c>
-      <c r="C314" t="s">
-        <v>57</v>
-      </c>
-      <c r="D314">
-        <v>7.28915519494213</v>
-      </c>
-      <c r="E314" t="s">
-        <v>5</v>
-      </c>
-      <c r="F314" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G314" t="s">
-        <v>19</v>
-      </c>
-      <c r="I314" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A315" t="s">
-        <v>63</v>
-      </c>
-      <c r="C315" t="s">
-        <v>54</v>
-      </c>
-      <c r="D315">
-        <v>5.6135340059469772E-4</v>
-      </c>
-      <c r="F315" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G315" t="s">
-        <v>60</v>
-      </c>
-      <c r="H315" t="s">
-        <v>61</v>
-      </c>
-      <c r="I315" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A316" t="s">
-        <v>65</v>
-      </c>
-      <c r="C316" t="s">
-        <v>54</v>
-      </c>
-      <c r="D316">
-        <v>1.3472481614272745E-5</v>
-      </c>
-      <c r="F316" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G316" t="s">
-        <v>60</v>
-      </c>
-      <c r="H316" t="s">
-        <v>61</v>
-      </c>
-      <c r="I316" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A317" t="s">
-        <v>67</v>
-      </c>
-      <c r="C317" t="s">
-        <v>54</v>
-      </c>
-      <c r="D317">
-        <v>2.6570727628149027E-3</v>
-      </c>
-      <c r="F317" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G317" t="s">
-        <v>60</v>
-      </c>
-      <c r="H317" t="s">
-        <v>61</v>
-      </c>
-      <c r="I317" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A318" t="s">
-        <v>68</v>
-      </c>
-      <c r="C318" t="s">
-        <v>54</v>
-      </c>
-      <c r="D318">
-        <v>1.0852832411497491E-3</v>
-      </c>
-      <c r="F318" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G318" t="s">
-        <v>60</v>
-      </c>
-      <c r="H318" t="s">
-        <v>61</v>
       </c>
       <c r="I318" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A372" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B372" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C372" s="2"/>
-      <c r="D372" s="2"/>
-      <c r="E372" s="2"/>
-      <c r="F372" s="2"/>
-      <c r="G372" s="2"/>
-      <c r="H372" s="2"/>
-      <c r="I372" s="2"/>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A373" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B373" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A374" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B374" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C374" s="5"/>
-      <c r="D374" s="5"/>
-      <c r="E374" s="5"/>
-      <c r="F374" s="5"/>
-      <c r="G374" s="5"/>
-      <c r="H374" s="5"/>
-      <c r="I374" s="5"/>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A375" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B375" s="6">
-        <v>1</v>
-      </c>
-      <c r="C375" s="5"/>
-      <c r="D375" s="5"/>
-      <c r="E375" s="5"/>
-      <c r="F375" s="5"/>
-      <c r="G375" s="5"/>
-      <c r="H375" s="5"/>
-      <c r="I375" s="5"/>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A376" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B376" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C376" s="5"/>
-      <c r="D376" s="5"/>
-      <c r="E376" s="5"/>
-      <c r="F376" s="5"/>
-      <c r="G376" s="5"/>
-      <c r="H376" s="5"/>
-      <c r="I376" s="5"/>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A378" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A379" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B379" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C379" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D379" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E379" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F379" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G379" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H379" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I379" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="380" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A380" t="str">
-        <f>B372</f>
-        <v>lewerenz_Open Composter</v>
-      </c>
-      <c r="B380" t="s">
-        <v>16</v>
-      </c>
-      <c r="C380" t="s">
-        <v>8</v>
-      </c>
-      <c r="D380" s="9">
-        <v>1</v>
-      </c>
-      <c r="E380" t="str">
-        <f>B374</f>
-        <v>CA-QC</v>
-      </c>
-      <c r="F380" t="str">
-        <f>$B$1</f>
-        <v>OWM LCA</v>
-      </c>
-      <c r="G380" t="s">
-        <v>17</v>
-      </c>
-      <c r="H380" s="3"/>
-      <c r="I380" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A381" s="9" t="s">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
         <v>34</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B319" t="s">
         <v>35</v>
       </c>
-      <c r="C381" t="s">
+      <c r="C319" t="s">
         <v>36</v>
       </c>
-      <c r="D381" s="17">
-        <f>0.0045*1000</f>
-        <v>4.5</v>
-      </c>
-      <c r="E381" t="s">
-        <v>32</v>
-      </c>
-      <c r="F381" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G381" t="s">
-        <v>19</v>
-      </c>
-      <c r="I381" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A382" t="s">
-        <v>38</v>
-      </c>
-      <c r="B382" t="s">
-        <v>39</v>
-      </c>
-      <c r="C382" t="s">
-        <v>40</v>
-      </c>
-      <c r="D382" s="14">
-        <f>0.000213066494623584*1000</f>
-        <v>0.21306649462358399</v>
-      </c>
-      <c r="E382" t="s">
-        <v>41</v>
-      </c>
-      <c r="F382" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G382" t="s">
-        <v>19</v>
-      </c>
-      <c r="I382" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A383" t="s">
-        <v>42</v>
-      </c>
-      <c r="B383" t="s">
-        <v>43</v>
-      </c>
-      <c r="C383" t="s">
-        <v>44</v>
-      </c>
-      <c r="D383" s="10">
-        <f>0.015*1000</f>
-        <v>15</v>
-      </c>
-      <c r="E383" t="s">
-        <v>41</v>
-      </c>
-      <c r="F383" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G383" t="s">
-        <v>19</v>
-      </c>
-      <c r="I383" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A384" t="s">
-        <v>45</v>
-      </c>
-      <c r="B384" t="s">
-        <v>46</v>
-      </c>
-      <c r="C384" t="s">
-        <v>44</v>
-      </c>
-      <c r="D384" s="10">
-        <f>0.017*1000</f>
-        <v>17</v>
-      </c>
-      <c r="E384" t="s">
-        <v>47</v>
-      </c>
-      <c r="F384" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G384" t="s">
-        <v>19</v>
-      </c>
-      <c r="I384" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A385" t="s">
-        <v>48</v>
-      </c>
-      <c r="B385" t="s">
-        <v>49</v>
-      </c>
-      <c r="C385" t="s">
-        <v>7</v>
-      </c>
-      <c r="D385" s="10">
-        <f>0.0000000040014*1000</f>
-        <v>4.0013999999999995E-6</v>
-      </c>
-      <c r="E385" t="s">
-        <v>50</v>
-      </c>
-      <c r="F385" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G385" t="s">
-        <v>19</v>
-      </c>
-      <c r="I385" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A386" t="s">
-        <v>52</v>
-      </c>
-      <c r="B386" t="s">
-        <v>53</v>
-      </c>
-      <c r="C386" t="s">
-        <v>54</v>
-      </c>
-      <c r="D386" s="10">
-        <f>0.0000185*1000</f>
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="E386" t="s">
-        <v>32</v>
-      </c>
-      <c r="F386" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G386" t="s">
-        <v>19</v>
-      </c>
-      <c r="I386" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A387" t="s">
-        <v>55</v>
-      </c>
-      <c r="B387" t="s">
-        <v>56</v>
-      </c>
-      <c r="C387" t="s">
-        <v>57</v>
-      </c>
-      <c r="D387" s="10">
-        <f>0.000225*1000</f>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="E387" t="s">
-        <v>58</v>
-      </c>
-      <c r="F387" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G387" t="s">
-        <v>19</v>
-      </c>
-      <c r="I387" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A388" t="s">
-        <v>59</v>
-      </c>
-      <c r="C388" t="s">
-        <v>57</v>
-      </c>
-      <c r="D388" s="10">
-        <f>0.000125*1000</f>
-        <v>0.125</v>
-      </c>
-      <c r="F388" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G388" t="s">
-        <v>60</v>
-      </c>
-      <c r="H388" t="s">
-        <v>59</v>
-      </c>
-      <c r="I388" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A389" t="s">
-        <v>63</v>
-      </c>
-      <c r="C389" t="s">
-        <v>54</v>
-      </c>
-      <c r="D389" s="11">
-        <f>1000*0.0007116</f>
-        <v>0.7115999999999999</v>
-      </c>
-      <c r="F389" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G389" t="s">
-        <v>60</v>
-      </c>
-      <c r="H389" t="s">
-        <v>61</v>
-      </c>
-      <c r="I389" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A390" t="s">
-        <v>64</v>
-      </c>
-      <c r="C390" t="s">
-        <v>54</v>
-      </c>
-      <c r="D390" s="10">
-        <f>1000*0.09793</f>
-        <v>97.93</v>
-      </c>
-      <c r="F390" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G390" t="s">
-        <v>60</v>
-      </c>
-      <c r="H390" t="s">
-        <v>61</v>
-      </c>
-      <c r="I390" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A391" t="s">
-        <v>65</v>
-      </c>
-      <c r="C391" t="s">
-        <v>54</v>
-      </c>
-      <c r="D391" s="10">
-        <f>1000*0.00015225</f>
-        <v>0.15225</v>
-      </c>
-      <c r="F391" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G391" t="s">
-        <v>60</v>
-      </c>
-      <c r="H391" t="s">
-        <v>61</v>
-      </c>
-      <c r="I391" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A392" t="s">
-        <v>66</v>
-      </c>
-      <c r="C392" t="s">
-        <v>54</v>
-      </c>
-      <c r="D392" s="10">
-        <f>1000*0.000526</f>
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="F392" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G392" t="s">
-        <v>60</v>
-      </c>
-      <c r="H392" t="s">
-        <v>61</v>
-      </c>
-      <c r="I392" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A393" t="s">
-        <v>67</v>
-      </c>
-      <c r="C393" t="s">
-        <v>54</v>
-      </c>
-      <c r="D393" s="10">
-        <f>1000*0.003244</f>
-        <v>3.2439999999999998</v>
-      </c>
-      <c r="F393" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G393" t="s">
-        <v>60</v>
-      </c>
-      <c r="H393" t="s">
-        <v>61</v>
-      </c>
-      <c r="I393" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A394" t="s">
-        <v>68</v>
-      </c>
-      <c r="C394" t="s">
-        <v>54</v>
-      </c>
-      <c r="D394" s="11">
-        <f>1000*0.000532</f>
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="F394" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G394" t="s">
-        <v>60</v>
-      </c>
-      <c r="H394" t="s">
-        <v>61</v>
-      </c>
-      <c r="I394" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A400" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B400" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C400" s="2"/>
-      <c r="D400" s="2"/>
-      <c r="E400" s="2"/>
-      <c r="F400" s="2"/>
-      <c r="G400" s="2"/>
-      <c r="H400" s="2"/>
-      <c r="I400" s="2"/>
-    </row>
-    <row r="401" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A401" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B401" s="25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A402" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B402" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C402" s="5"/>
-      <c r="D402" s="5"/>
-      <c r="E402" s="5"/>
-      <c r="F402" s="5"/>
-      <c r="G402" s="5"/>
-      <c r="H402" s="5"/>
-      <c r="I402" s="5"/>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A403" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B403" s="6">
-        <v>1</v>
-      </c>
-      <c r="C403" s="5"/>
-      <c r="D403" s="5"/>
-      <c r="E403" s="5"/>
-      <c r="F403" s="5"/>
-      <c r="G403" s="5"/>
-      <c r="H403" s="5"/>
-      <c r="I403" s="5"/>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A404" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B404" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C404" s="5"/>
-      <c r="D404" s="5"/>
-      <c r="E404" s="5"/>
-      <c r="F404" s="5"/>
-      <c r="G404" s="5"/>
-      <c r="H404" s="5"/>
-      <c r="I404" s="5"/>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A406" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A407" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B407" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C407" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D407" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E407" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F407" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G407" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H407" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I407" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A408" t="str">
-        <f>B400</f>
-        <v>NS_compost</v>
-      </c>
-      <c r="B408" t="s">
-        <v>16</v>
-      </c>
-      <c r="C408" t="s">
-        <v>8</v>
-      </c>
-      <c r="D408">
-        <v>1</v>
-      </c>
-      <c r="E408" t="str">
-        <f>B402</f>
-        <v>CA-NS</v>
-      </c>
-      <c r="F408" t="s">
-        <v>1</v>
-      </c>
-      <c r="G408" t="s">
-        <v>17</v>
-      </c>
-      <c r="I408" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A409" t="s">
-        <v>34</v>
-      </c>
-      <c r="B409" t="s">
-        <v>35</v>
-      </c>
-      <c r="C409" t="s">
-        <v>36</v>
-      </c>
-      <c r="D409">
-        <v>27.42983199561294</v>
-      </c>
-      <c r="E409" t="str">
-        <f>E408</f>
-        <v>CA-NS</v>
-      </c>
-      <c r="F409" t="s">
-        <v>156</v>
-      </c>
-      <c r="G409" t="s">
-        <v>19</v>
-      </c>
-      <c r="I409" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A410" t="s">
-        <v>190</v>
-      </c>
-      <c r="B410" t="s">
-        <v>182</v>
-      </c>
-      <c r="C410" t="str">
-        <f>C411</f>
-        <v>kilogram</v>
-      </c>
-      <c r="D410">
-        <v>3.34</v>
-      </c>
-      <c r="E410" t="s">
-        <v>50</v>
-      </c>
-      <c r="F410" t="s">
-        <v>156</v>
-      </c>
-      <c r="G410" t="s">
-        <v>19</v>
-      </c>
-      <c r="I410" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A411" t="s">
-        <v>65</v>
-      </c>
-      <c r="C411" t="s">
-        <v>54</v>
-      </c>
-      <c r="D411">
-        <v>8.9947155890124133</v>
-      </c>
-      <c r="F411" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G411" t="s">
-        <v>60</v>
-      </c>
-      <c r="H411" t="s">
-        <v>61</v>
-      </c>
-      <c r="I411" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A412" t="s">
-        <v>67</v>
-      </c>
-      <c r="C412" t="s">
-        <v>54</v>
-      </c>
-      <c r="D412">
-        <v>5.6084551000000003E-2</v>
-      </c>
-      <c r="F412" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G412" t="s">
-        <v>60</v>
-      </c>
-      <c r="H412" t="s">
-        <v>61</v>
-      </c>
-      <c r="I412" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A413" t="s">
-        <v>64</v>
-      </c>
-      <c r="C413" t="s">
-        <v>54</v>
-      </c>
-      <c r="D413" s="10">
-        <v>34.182910409999998</v>
-      </c>
-      <c r="F413" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G413" t="s">
-        <v>60</v>
-      </c>
-      <c r="H413" t="s">
-        <v>61</v>
-      </c>
-      <c r="I413" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A422" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B422" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C422" s="2"/>
-      <c r="D422" s="2"/>
-      <c r="E422" s="2"/>
-      <c r="F422" s="2"/>
-      <c r="G422" s="2"/>
-      <c r="H422" s="2"/>
-      <c r="I422" s="2"/>
-    </row>
-    <row r="423" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A423" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B423" s="25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A424" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B424" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C424" s="5"/>
-      <c r="D424" s="5"/>
-      <c r="E424" s="5"/>
-      <c r="F424" s="5"/>
-      <c r="G424" s="5"/>
-      <c r="H424" s="5"/>
-      <c r="I424" s="5"/>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A425" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B425" s="6">
-        <v>1</v>
-      </c>
-      <c r="C425" s="5"/>
-      <c r="D425" s="5"/>
-      <c r="E425" s="5"/>
-      <c r="F425" s="5"/>
-      <c r="G425" s="5"/>
-      <c r="H425" s="5"/>
-      <c r="I425" s="5"/>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A426" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B426" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C426" s="5"/>
-      <c r="D426" s="5"/>
-      <c r="E426" s="5"/>
-      <c r="F426" s="5"/>
-      <c r="G426" s="5"/>
-      <c r="H426" s="5"/>
-      <c r="I426" s="5"/>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A428" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A429" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B429" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C429" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D429" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E429" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F429" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G429" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H429" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I429" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A430" t="str">
-        <f>B422</f>
-        <v>NS_AD</v>
-      </c>
-      <c r="B430" t="s">
-        <v>16</v>
-      </c>
-      <c r="C430" t="s">
-        <v>8</v>
-      </c>
-      <c r="D430">
-        <v>1</v>
-      </c>
-      <c r="E430" t="str">
-        <f>B424</f>
-        <v>CA-NS</v>
-      </c>
-      <c r="F430" t="s">
-        <v>1</v>
-      </c>
-      <c r="G430" t="s">
-        <v>17</v>
-      </c>
-      <c r="I430" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A431" t="s">
-        <v>34</v>
-      </c>
-      <c r="B431" t="s">
-        <v>35</v>
-      </c>
-      <c r="C431" t="s">
-        <v>36</v>
-      </c>
-      <c r="D431" s="10">
+      <c r="D319" s="10">
         <v>19.624800000000015</v>
       </c>
-      <c r="E431" t="str">
+      <c r="E319" t="str">
         <f>[2]Sheet1!E11</f>
         <v>CA-QC</v>
       </c>
-      <c r="F431" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G431" t="s">
+      <c r="F319" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G319" t="s">
         <v>19</v>
       </c>
-      <c r="I431" t="s">
+      <c r="I319" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A432" s="9" t="s">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A320" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B432" t="s">
+      <c r="B320" t="s">
         <v>35</v>
       </c>
-      <c r="C432" t="s">
+      <c r="C320" t="s">
         <v>36</v>
       </c>
-      <c r="D432">
+      <c r="D320">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E432" t="s">
+      <c r="E320" t="s">
         <v>5</v>
       </c>
-      <c r="F432" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G432" t="s">
-        <v>69</v>
-      </c>
-      <c r="I432" t="s">
+      <c r="F320" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G320" t="s">
+        <v>68</v>
+      </c>
+      <c r="I320" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A433" t="s">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
         <v>64</v>
       </c>
-      <c r="C433" t="s">
-        <v>54</v>
-      </c>
-      <c r="D433" s="26">
+      <c r="C321" t="s">
+        <v>54</v>
+      </c>
+      <c r="D321" s="25">
         <v>3.9980000000000002</v>
       </c>
-      <c r="F433" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G433" t="s">
+      <c r="F321" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G321" t="s">
         <v>60</v>
       </c>
-      <c r="H433" t="s">
+      <c r="H321" t="s">
         <v>61</v>
       </c>
-      <c r="I433" t="s">
+      <c r="I321" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A434" t="s">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
         <v>65</v>
       </c>
-      <c r="C434" t="s">
-        <v>54</v>
-      </c>
-      <c r="D434" s="11">
+      <c r="C322" t="s">
+        <v>54</v>
+      </c>
+      <c r="D322" s="11">
         <v>2.75E-2</v>
       </c>
-      <c r="F434" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G434" t="s">
+      <c r="F322" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G322" t="s">
         <v>60</v>
       </c>
-      <c r="H434" t="s">
+      <c r="H322" t="s">
         <v>61</v>
       </c>
-      <c r="I434" t="s">
+      <c r="I322" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A435" t="s">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
         <v>67</v>
       </c>
-      <c r="C435" t="s">
-        <v>54</v>
-      </c>
-      <c r="D435" s="11">
+      <c r="C323" t="s">
+        <v>54</v>
+      </c>
+      <c r="D323" s="11">
         <v>13.210197464999998</v>
       </c>
-      <c r="F435" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G435" t="s">
+      <c r="F323" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G323" t="s">
         <v>60</v>
       </c>
-      <c r="H435" t="s">
+      <c r="H323" t="s">
         <v>61</v>
       </c>
-      <c r="I435" t="s">
+      <c r="I323" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A436" t="s">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>80</v>
+      </c>
+      <c r="B324" t="s">
         <v>81</v>
       </c>
-      <c r="B436" t="s">
-        <v>82</v>
-      </c>
-      <c r="C436" t="s">
-        <v>54</v>
-      </c>
-      <c r="D436">
+      <c r="C324" t="s">
+        <v>54</v>
+      </c>
+      <c r="D324">
         <v>0</v>
       </c>
-      <c r="E436" t="s">
+      <c r="E324" t="s">
         <v>41</v>
       </c>
-      <c r="F436" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G436" t="s">
-        <v>69</v>
-      </c>
-      <c r="I436" t="s">
-        <v>185</v>
+      <c r="F324" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G324" t="s">
+        <v>68</v>
+      </c>
+      <c r="I324" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -6412,50 +6534,50 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
         <v>86</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>87</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B3" s="17" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -6463,13 +6585,13 @@
         <v>50.7</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -6477,13 +6599,13 @@
         <v>15.6</v>
       </c>
       <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
         <v>95</v>
       </c>
-      <c r="D5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -6491,13 +6613,13 @@
         <v>59.6</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -6505,13 +6627,13 @@
         <v>77.400000000000006</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -6519,13 +6641,13 @@
         <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -6533,13 +6655,13 @@
         <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -6547,16 +6669,16 @@
         <v>170</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -6564,13 +6686,13 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -6578,14 +6700,14 @@
         <v>15.6</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D13" t="str">
         <f>D5</f>
         <v>3779, chemin des 40 Arpents, Lachenaie, QC J6V 9T6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -6594,17 +6716,17 @@
         <v>59.6</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D14" t="str">
         <f>D6</f>
         <v>1001, Chemin St-Joseph, Saint-Thomas, QC J0K 3L0</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -6612,16 +6734,16 @@
         <v>28.4</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -6629,10 +6751,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -6648,221 +6770,221 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="F2" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="B3" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" t="s">
-        <v>117</v>
-      </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3">
         <f>D4*D5*(1-D6)*(D7*(1-D8)/D9)</f>
         <v>87.325775070989351</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D4" s="10">
         <v>3676.0683760683701</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D5">
         <v>0.49222092828706998</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D6">
         <v>0.03</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D7">
         <v>0.15403929282883699</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D8">
         <v>0.64395916871050696</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D9">
         <v>1.1023113109243901</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D10">
         <v>1012</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D11">
         <v>0.85</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D12">
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D13" s="10">
         <v>8.5470085470085402E-5</v>
       </c>
       <c r="E13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D14">
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D15">
         <f>D16 *(1-D8)/D9</f>
         <v>8.0744333056655251E-2</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D16">
         <v>0.249986472897059</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D17">
         <v>3.6666666666666701</v>
       </c>
       <c r="E17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D19">
         <f>D20*D7*(1-D8)/D9</f>
         <v>1.8120514032696062E-2</v>
       </c>
       <c r="E19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D20">
         <v>0.36420294611850601</v>
@@ -6878,28 +7000,28 @@
   <dimension ref="A2:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" customWidth="1"/>
-    <col min="7" max="7" width="47.26953125" customWidth="1"/>
-    <col min="8" max="8" width="46.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="47.28515625" customWidth="1"/>
+    <col min="8" max="8" width="46.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I2" t="s">
         <v>54</v>
@@ -6909,30 +7031,30 @@
         <v>0.29528799999999999</v>
       </c>
       <c r="K2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2.5</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I3" t="s">
         <v>54</v>
@@ -6942,30 +7064,30 @@
         <v>0.168736</v>
       </c>
       <c r="K3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I4" t="s">
         <v>54</v>
@@ -6975,107 +7097,107 @@
         <v>0.253104</v>
       </c>
       <c r="K4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.10546</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>$A$11/$A$3*A4</f>
         <v>0.168736</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>$A$11/$A$3*A5</f>
         <v>0.253104</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ref="A14" si="0">$A$11/$A$3*A6</f>
         <v>0.29528799999999999</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H19" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I19" t="s">
         <v>54</v>
@@ -7084,30 +7206,30 @@
         <v>1.7808000000000002</v>
       </c>
       <c r="K19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.63600000000000001</v>
       </c>
       <c r="B20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I20" t="s">
         <v>54</v>
@@ -7116,31 +7238,31 @@
         <v>1.0176000000000001</v>
       </c>
       <c r="K20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>$A$20/$A$3*A4</f>
         <v>1.0176000000000001</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I21" t="s">
         <v>54</v>
@@ -7149,34 +7271,34 @@
         <v>1.5264000000000002</v>
       </c>
       <c r="K21" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L21" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>$A$20/$A$3*A5</f>
         <v>1.5264000000000002</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>$A$20/$A$3*A6</f>
         <v>1.7808000000000002</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -7192,95 +7314,95 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B4">
         <v>18.63</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B5">
         <v>38.32</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B6">
         <f>B4/B5</f>
         <v>0.48616910229645088</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="24" t="s">
-        <v>173</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>170</v>
       </c>
       <c r="B7">
         <v>2579984</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B8">
         <v>60000</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B12">
         <f>B7*B6/B8</f>
         <v>20.905141753653442</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/pythonshinyproject/dashboard/data/Canada OWM Facilities Database.xlsx
+++ b/pythonshinyproject/dashboard/data/Canada OWM Facilities Database.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smacdo55\Downloads\Jupyter Notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B991F7D0-F09F-4FCA-A34A-5F35327407DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27537E6C-96C5-4AEB-935F-34C39C177BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LCI" sheetId="1" r:id="rId1"/>
-    <sheet name="Transportation" sheetId="2" r:id="rId2"/>
-    <sheet name="Landfill Equations (WARM)" sheetId="3" r:id="rId3"/>
-    <sheet name="Fertilizer credit for compost" sheetId="4" r:id="rId4"/>
-    <sheet name="Natural gas credit AD" sheetId="5" r:id="rId5"/>
+    <sheet name="Comparing windrow models" sheetId="6" r:id="rId2"/>
+    <sheet name="Transportation" sheetId="2" r:id="rId3"/>
+    <sheet name="Landfill Equations (WARM)" sheetId="3" r:id="rId4"/>
+    <sheet name="Fertilizer credit for compost" sheetId="4" r:id="rId5"/>
+    <sheet name="Natural gas credit" sheetId="5" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="221">
   <si>
     <t>Database</t>
   </si>
@@ -547,9 +547,6 @@
     <t>Natural gas</t>
   </si>
   <si>
-    <t>MJ/m4</t>
-  </si>
-  <si>
     <t>efficiency of LFG relative to NG</t>
   </si>
   <si>
@@ -568,15 +565,9 @@
     <t>GHG report City</t>
   </si>
   <si>
-    <t>Avoided Natural gas</t>
-  </si>
-  <si>
     <t>m3/t OW</t>
   </si>
   <si>
-    <t>diesel, burned in diesel-electric generating set, 10MW</t>
-  </si>
-  <si>
     <t>NS_AD</t>
   </si>
   <si>
@@ -601,9 +592,6 @@
     <t>nutrient supply from potassium chloride</t>
   </si>
   <si>
-    <t>market for diesel, burned in diesel-electric generating set, 10MW</t>
-  </si>
-  <si>
     <t>soil</t>
   </si>
   <si>
@@ -646,25 +634,90 @@
     <t>Courthouse Hill Energy Ltd.</t>
   </si>
   <si>
-    <t xml:space="preserve">avoided fertilizer… </t>
-  </si>
-  <si>
     <t>market for diesel</t>
   </si>
   <si>
     <t>diesel</t>
+  </si>
+  <si>
+    <t>Annual production of RNG from landfill</t>
+  </si>
+  <si>
+    <t>m3/ton OFMSW</t>
+  </si>
+  <si>
+    <t>Avoided Natural gas AD</t>
+  </si>
+  <si>
+    <t>Avoided Natural gas landfill</t>
+  </si>
+  <si>
+    <t>wastewater</t>
+  </si>
+  <si>
+    <t>terrebonne</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>lewerenz</t>
+  </si>
+  <si>
+    <t>Data source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">general name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">warm </t>
+  </si>
+  <si>
+    <t>Windrow Compost</t>
+  </si>
+  <si>
+    <t>Landfill</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>N2O</t>
+  </si>
+  <si>
+    <t>electricity generated</t>
+  </si>
+  <si>
+    <t>electricity consumed</t>
+  </si>
+  <si>
+    <t>230800 BTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SETAC landfill </t>
+  </si>
+  <si>
+    <t>WARM (ghgs in kg)</t>
+  </si>
+  <si>
+    <t>ECCC (kg)</t>
+  </si>
+  <si>
+    <t>diesel (kg)</t>
+  </si>
+  <si>
+    <t>application of digestate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,12 +747,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF363636"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -795,9 +842,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -817,48 +864,32 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Heading 1" xfId="3" builtinId="16"/>
@@ -880,39 +911,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="LCI"/>
-      <sheetName val="Dependencies"/>
-      <sheetName val="Landfill LCA"/>
-      <sheetName val="Home composting"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="23">
-          <cell r="M23">
-            <v>8.074433305665539E-2</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="W27">
-            <v>1.8120514032696062E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1197,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J324"/>
+  <dimension ref="A1:J329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="F310" sqref="F310"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="68" workbookViewId="0">
+      <selection activeCell="B284" sqref="B284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1323,445 +1321,417 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="9">
         <v>1</v>
       </c>
-      <c r="E11" s="27" t="str">
+      <c r="E11" t="str">
         <f>B5</f>
         <v>CA-QC</v>
       </c>
-      <c r="F11" s="27" t="str">
+      <c r="F11" t="str">
         <f>$B$1</f>
         <v>OWM Facilities</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="27" t="s">
+      <c r="H11" s="3"/>
+      <c r="I11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="10">
         <f>0.033*1000</f>
         <v>33</v>
       </c>
-      <c r="E12" s="27" t="str">
+      <c r="E12" t="str">
         <f>B5</f>
         <v>CA-QC</v>
       </c>
-      <c r="F12" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G12" s="27" t="s">
+      <c r="F12" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G12" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27" t="s">
+      <c r="I12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="10">
         <f>0.000253016462365506*1000</f>
         <v>0.25301646236550601</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G13" s="27" t="s">
+      <c r="F13" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G13" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27" t="s">
+      <c r="I13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="10">
         <f>Transportation!B15</f>
         <v>28.4</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G14" s="27" t="s">
+      <c r="F14" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27" t="s">
+      <c r="I14" t="s">
         <v>37</v>
       </c>
       <c r="J14" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="30">
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="10">
         <f>0.0000185*1000</f>
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G15" s="27" t="s">
+      <c r="F15" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G15" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27" t="s">
+      <c r="I15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="B16" s="27" t="s">
+      <c r="A16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16">
         <v>0.22500000000000001</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G16" s="27" t="s">
+      <c r="F16" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G16" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27" t="s">
+      <c r="I16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27" t="s">
+      <c r="C17" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="10">
         <f>0.000125*1000</f>
         <v>0.125</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="G17" s="27" t="s">
+      <c r="F17" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G17" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" t="s">
         <v>61</v>
       </c>
-      <c r="I17" s="27" t="s">
+      <c r="I17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="32">
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="11">
         <f>0.0000376*1000</f>
         <v>3.7600000000000001E-2</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="G18" s="27" t="s">
+      <c r="F18" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="27" t="s">
+      <c r="I18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="A19" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="30">
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="10">
         <f>0.0936*1000</f>
         <v>93.600000000000009</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="G19" s="27" t="s">
+      <c r="F19" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" t="s">
         <v>61</v>
       </c>
-      <c r="I19" s="27" t="s">
+      <c r="I19" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="30">
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="10">
         <f>0.000091*1000</f>
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="G20" s="27" t="s">
+      <c r="F20" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="27" t="s">
+      <c r="I20" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="30">
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="10">
         <f>0.000526*1000</f>
         <v>0.52600000000000002</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="G21" s="27" t="s">
+      <c r="F21" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="I21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="30">
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="10">
         <f>0.00264*1000</f>
         <v>2.64</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>193</v>
       </c>
-      <c r="G22" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="32">
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="11">
         <f>0.000476*1000</f>
         <v>0.47600000000000003</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="G23" s="27" t="s">
+      <c r="F23" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" t="s">
         <v>61</v>
       </c>
-      <c r="I23" s="27" t="s">
+      <c r="I23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="B24" s="27" t="s">
+      <c r="A24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B24" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="27">
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24">
         <v>0.29528799999999999</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" t="s">
         <v>148</v>
       </c>
-      <c r="F24" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G24" s="27" t="s">
+      <c r="F24" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" t="s">
         <v>68</v>
       </c>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B25" s="27" t="s">
+      <c r="A25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" t="s">
         <v>146</v>
       </c>
-      <c r="C25" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="27">
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25">
         <v>0.168736</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" t="s">
         <v>148</v>
       </c>
-      <c r="F25" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G25" s="27" t="s">
+      <c r="F25" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" t="s">
         <v>68</v>
       </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="B26" s="27" t="s">
+      <c r="A26" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="27">
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26">
         <v>0.253104</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" t="s">
         <v>148</v>
       </c>
-      <c r="F26" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G26" s="27" t="s">
+      <c r="F26" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G26" t="s">
         <v>68</v>
       </c>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
-      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
-      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
-      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D30" s="12"/>
@@ -1926,8 +1896,8 @@
         <f>E44</f>
         <v>CA-QC</v>
       </c>
-      <c r="F45" s="22" t="s">
-        <v>192</v>
+      <c r="F45" s="20" t="s">
+        <v>188</v>
       </c>
       <c r="G45" t="s">
         <v>19</v>
@@ -1950,8 +1920,8 @@
       <c r="E46" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="22" t="s">
-        <v>192</v>
+      <c r="F46" s="20" t="s">
+        <v>188</v>
       </c>
       <c r="G46" t="s">
         <v>19</v>
@@ -1974,8 +1944,8 @@
       <c r="E47" t="s">
         <v>41</v>
       </c>
-      <c r="F47" s="22" t="s">
-        <v>192</v>
+      <c r="F47" s="20" t="s">
+        <v>188</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
@@ -1998,8 +1968,8 @@
       <c r="E48" t="s">
         <v>70</v>
       </c>
-      <c r="F48" s="22" t="s">
-        <v>192</v>
+      <c r="F48" s="20" t="s">
+        <v>188</v>
       </c>
       <c r="G48" t="s">
         <v>19</v>
@@ -2022,8 +1992,8 @@
       <c r="E49" t="s">
         <v>47</v>
       </c>
-      <c r="F49" s="22" t="s">
-        <v>192</v>
+      <c r="F49" s="20" t="s">
+        <v>188</v>
       </c>
       <c r="G49" t="s">
         <v>19</v>
@@ -2040,8 +2010,8 @@
         <f>1000*0.0001456</f>
         <v>0.14559999999999998</v>
       </c>
-      <c r="F50" s="22" t="s">
-        <v>193</v>
+      <c r="F50" s="20" t="s">
+        <v>189</v>
       </c>
       <c r="G50" t="s">
         <v>60</v>
@@ -2061,8 +2031,8 @@
         <f>1000*0.0916</f>
         <v>91.6</v>
       </c>
-      <c r="F51" s="22" t="s">
-        <v>193</v>
+      <c r="F51" s="20" t="s">
+        <v>189</v>
       </c>
       <c r="G51" t="s">
         <v>60</v>
@@ -2082,8 +2052,8 @@
         <f>1000*0.00008</f>
         <v>0.08</v>
       </c>
-      <c r="F52" s="22" t="s">
-        <v>193</v>
+      <c r="F52" s="20" t="s">
+        <v>189</v>
       </c>
       <c r="G52" t="s">
         <v>60</v>
@@ -2103,8 +2073,8 @@
         <f>1000*0.0000896</f>
         <v>8.9599999999999999E-2</v>
       </c>
-      <c r="F53" s="22" t="s">
-        <v>193</v>
+      <c r="F53" s="20" t="s">
+        <v>189</v>
       </c>
       <c r="G53" t="s">
         <v>60</v>
@@ -2124,8 +2094,8 @@
         <f>1000*0.00274</f>
         <v>2.7399999999999998</v>
       </c>
-      <c r="F54" s="22" t="s">
-        <v>193</v>
+      <c r="F54" s="20" t="s">
+        <v>189</v>
       </c>
       <c r="G54" t="s">
         <v>60</v>
@@ -2136,7 +2106,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C55" t="s">
         <v>54</v>
@@ -2145,8 +2115,8 @@
         <f>1000*0.000426</f>
         <v>0.42599999999999999</v>
       </c>
-      <c r="F55" s="22" t="s">
-        <v>193</v>
+      <c r="F55" s="20" t="s">
+        <v>189</v>
       </c>
       <c r="G55" t="s">
         <v>60</v>
@@ -2166,8 +2136,8 @@
         <f>1000*0.00000297</f>
         <v>2.97E-3</v>
       </c>
-      <c r="F56" s="22" t="s">
-        <v>193</v>
+      <c r="F56" s="20" t="s">
+        <v>189</v>
       </c>
       <c r="G56" t="s">
         <v>60</v>
@@ -2187,8 +2157,8 @@
         <f>1000*0.0000000928</f>
         <v>9.2799999999999992E-5</v>
       </c>
-      <c r="F57" s="22" t="s">
-        <v>193</v>
+      <c r="F57" s="20" t="s">
+        <v>189</v>
       </c>
       <c r="G57" t="s">
         <v>60</v>
@@ -2208,8 +2178,8 @@
         <f>1000*0.000000109</f>
         <v>1.0899999999999999E-4</v>
       </c>
-      <c r="F58" s="22" t="s">
-        <v>193</v>
+      <c r="F58" s="20" t="s">
+        <v>189</v>
       </c>
       <c r="G58" t="s">
         <v>60</v>
@@ -2229,8 +2199,8 @@
         <f>1000*0.0000000704</f>
         <v>7.039999999999999E-5</v>
       </c>
-      <c r="F59" s="22" t="s">
-        <v>193</v>
+      <c r="F59" s="20" t="s">
+        <v>189</v>
       </c>
       <c r="G59" t="s">
         <v>60</v>
@@ -2241,7 +2211,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B60" t="s">
         <v>56</v>
@@ -2255,8 +2225,8 @@
       <c r="E60" t="s">
         <v>5</v>
       </c>
-      <c r="F60" s="22" t="s">
-        <v>192</v>
+      <c r="F60" s="20" t="s">
+        <v>188</v>
       </c>
       <c r="G60" t="s">
         <v>19</v>
@@ -2267,84 +2237,99 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="B61" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="C61" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D61">
-        <f>1000*0.62</f>
-        <v>620</v>
+        <f>'Natural gas credit'!B12</f>
+        <v>20.905141753653442</v>
       </c>
       <c r="E61" t="s">
-        <v>41</v>
-      </c>
-      <c r="F61" s="22" t="s">
         <v>192</v>
       </c>
+      <c r="F61" s="20" t="s">
+        <v>188</v>
+      </c>
       <c r="G61" t="s">
-        <v>19</v>
-      </c>
-      <c r="I61" t="s">
-        <v>200</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="B62" s="27" t="s">
-        <v>188</v>
+      <c r="A62" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" t="s">
+        <v>145</v>
       </c>
       <c r="C62" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D62">
-        <f>'Natural gas credit AD'!B12</f>
-        <v>20.905141753653442</v>
+        <f>620*0.4</f>
+        <v>248</v>
       </c>
       <c r="E62" t="s">
-        <v>196</v>
-      </c>
-      <c r="F62" s="22" t="s">
-        <v>192</v>
+        <v>148</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>188</v>
       </c>
       <c r="G62" t="s">
         <v>68</v>
       </c>
+      <c r="I62" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>2</v>
+      <c r="A65" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
+        <v>82</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B66" t="s">
-        <v>82</v>
-      </c>
+      <c r="A66" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B67" s="6">
+        <v>1</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -2356,10 +2341,10 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68" s="6">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -2369,201 +2354,250 @@
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I72" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="27" t="s">
+      <c r="A72" t="s">
         <v>18</v>
       </c>
-      <c r="B73" s="27" t="s">
+      <c r="B72" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="27" t="s">
+      <c r="C72" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="34">
+      <c r="D72" s="12">
         <v>1</v>
       </c>
-      <c r="E73" s="27" t="s">
+      <c r="E72" t="s">
         <v>5</v>
       </c>
-      <c r="F73" s="27" t="str">
+      <c r="F72" t="str">
         <f>$B$1</f>
         <v>OWM Facilities</v>
       </c>
-      <c r="G73" s="27" t="s">
+      <c r="G72" t="s">
         <v>17</v>
       </c>
-      <c r="H73" s="27"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="27" t="s">
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>45</v>
       </c>
-      <c r="B74" s="27" t="s">
+      <c r="B73" t="s">
         <v>46</v>
       </c>
-      <c r="C74" s="27" t="s">
+      <c r="C73" t="s">
         <v>44</v>
       </c>
-      <c r="D74" s="33">
+      <c r="D73" s="13">
         <f>Transportation!B4</f>
         <v>50.7</v>
       </c>
-      <c r="E74" s="27" t="s">
+      <c r="E73" t="s">
         <v>47</v>
       </c>
-      <c r="F74" s="31" t="s">
+      <c r="F73" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>196</v>
+      </c>
+      <c r="B74" t="s">
+        <v>197</v>
+      </c>
+      <c r="C74" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74" s="13">
+        <f>'Comparing windrow models'!C21</f>
+        <v>0.68883085661884558</v>
+      </c>
+      <c r="E74" t="s">
+        <v>50</v>
+      </c>
+      <c r="F74" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G74" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" t="s">
+        <v>54</v>
+      </c>
+      <c r="D75" s="13">
+        <v>73.250026790475331</v>
+      </c>
+      <c r="F75" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G75" t="s">
+        <v>60</v>
+      </c>
+      <c r="H75" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>183</v>
+      </c>
+      <c r="C76" t="s">
+        <v>54</v>
+      </c>
+      <c r="D76" s="13">
+        <f>'Comparing windrow models'!F23</f>
+        <v>2.33552297919117</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G76" t="s">
+        <v>60</v>
+      </c>
+      <c r="H76" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>185</v>
+      </c>
+      <c r="B77" t="s">
+        <v>184</v>
+      </c>
+      <c r="C77" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77">
+        <f>'Natural gas credit'!B13</f>
+        <v>109.57129105566415</v>
+      </c>
+      <c r="E77" t="s">
         <v>192</v>
       </c>
-      <c r="G74" s="27" t="s">
+      <c r="F77" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G77" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" t="s">
+        <v>54</v>
+      </c>
+      <c r="D78">
+        <f>'Comparing windrow models'!F27</f>
+        <v>5.1972444828385896E-3</v>
+      </c>
+      <c r="F78" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G78" t="s">
+        <v>60</v>
+      </c>
+      <c r="H78" t="s">
+        <v>61</v>
+      </c>
+      <c r="I78" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" t="s">
+        <v>35</v>
+      </c>
+      <c r="C79" t="s">
+        <v>36</v>
+      </c>
+      <c r="D79">
+        <v>36.273732772249062</v>
+      </c>
+      <c r="E79" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" t="s">
+        <v>188</v>
+      </c>
+      <c r="G79" t="s">
         <v>19</v>
       </c>
-      <c r="H74" s="27"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="B75" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="C75" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D75" s="27">
-        <f>0.319/948.45138280892</f>
-        <v>3.363377457000001E-4</v>
-      </c>
-      <c r="E75" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="F75" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G75" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" s="27"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D76" s="33">
-        <v>73.250026790475331</v>
-      </c>
-      <c r="E76" s="27"/>
-      <c r="F76" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="G76" s="27" t="s">
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80" t="s">
+        <v>54</v>
+      </c>
+      <c r="D80" s="10">
+        <f>'Comparing windrow models'!F26</f>
+        <v>21.671376530106802</v>
+      </c>
+      <c r="F80" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G80" t="s">
         <v>60</v>
       </c>
-      <c r="H76" s="27" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D77" s="33">
-        <v>16.43865381141773</v>
-      </c>
-      <c r="E77" s="27"/>
-      <c r="F77" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="G77" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="H77" s="27" t="s">
+      <c r="H80" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="B78" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="C78" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D78" s="27">
-        <f>'Natural gas credit AD'!B28</f>
-        <v>0</v>
-      </c>
-      <c r="E78" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="F78" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G78" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="H78" s="27"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D80" s="11"/>
+      <c r="I80" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -2702,115 +2736,177 @@
       <c r="C90" t="s">
         <v>44</v>
       </c>
-      <c r="D90" s="14">
+      <c r="D90" s="13">
         <f>Transportation!B5</f>
         <v>15.6</v>
       </c>
       <c r="E90" t="s">
         <v>47</v>
       </c>
-      <c r="F90" s="22" t="s">
-        <v>192</v>
+      <c r="F90" s="20" t="s">
+        <v>188</v>
       </c>
       <c r="G90" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="27" t="s">
+      <c r="A91" t="s">
+        <v>196</v>
+      </c>
+      <c r="B91" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" t="s">
+        <v>54</v>
+      </c>
+      <c r="D91" s="13">
+        <v>0.68883085661884558</v>
+      </c>
+      <c r="E91" t="s">
+        <v>50</v>
+      </c>
+      <c r="F91" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G91" t="s">
+        <v>19</v>
+      </c>
+      <c r="I91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>135</v>
+      </c>
+      <c r="C92" t="s">
+        <v>54</v>
+      </c>
+      <c r="D92" s="13">
+        <v>73.250026790475331</v>
+      </c>
+      <c r="F92" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G92" t="s">
+        <v>60</v>
+      </c>
+      <c r="H92" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>183</v>
+      </c>
+      <c r="C93" t="s">
+        <v>54</v>
+      </c>
+      <c r="D93" s="13">
+        <v>2.33552297919117</v>
+      </c>
+      <c r="F93" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G93" t="s">
+        <v>60</v>
+      </c>
+      <c r="H93" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>185</v>
       </c>
-      <c r="B91" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="C91" s="27" t="str">
-        <f>C75</f>
-        <v>megajoule</v>
-      </c>
-      <c r="D91" s="27">
-        <f>0.319/948.45138280892</f>
-        <v>3.363377457000001E-4</v>
-      </c>
-      <c r="E91" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="F91" s="31" t="s">
+      <c r="B94" t="s">
+        <v>184</v>
+      </c>
+      <c r="C94" t="s">
+        <v>57</v>
+      </c>
+      <c r="D94">
+        <v>109.57129105566415</v>
+      </c>
+      <c r="E94" t="s">
         <v>192</v>
       </c>
-      <c r="G91" s="27" t="s">
+      <c r="F94" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G94" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>65</v>
+      </c>
+      <c r="C95" t="s">
+        <v>54</v>
+      </c>
+      <c r="D95">
+        <v>5.1972444828385896E-3</v>
+      </c>
+      <c r="F95" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G95" t="s">
+        <v>60</v>
+      </c>
+      <c r="H95" t="s">
+        <v>61</v>
+      </c>
+      <c r="I95" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>64</v>
+      </c>
+      <c r="C96" t="s">
+        <v>54</v>
+      </c>
+      <c r="D96" s="10">
+        <v>21.671376530106802</v>
+      </c>
+      <c r="F96" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G96" t="s">
+        <v>60</v>
+      </c>
+      <c r="H96" t="s">
+        <v>61</v>
+      </c>
+      <c r="I96" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>34</v>
+      </c>
+      <c r="B97" t="s">
+        <v>35</v>
+      </c>
+      <c r="C97" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97">
+        <v>36.273732772249062</v>
+      </c>
+      <c r="E97" t="s">
+        <v>5</v>
+      </c>
+      <c r="F97" t="s">
+        <v>188</v>
+      </c>
+      <c r="G97" t="s">
         <v>19</v>
       </c>
-      <c r="H91" s="27"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="B92" s="27"/>
-      <c r="C92" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D92" s="33">
-        <v>73.250026790475331</v>
-      </c>
-      <c r="E92" s="27"/>
-      <c r="F92" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="G92" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="H92" s="27" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="B93" s="27"/>
-      <c r="C93" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D93" s="33">
-        <v>16.43865381141773</v>
-      </c>
-      <c r="E93" s="27"/>
-      <c r="F93" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="G93" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="H93" s="27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A94" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="B94" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="C94" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D94" s="27">
-        <f>'Natural gas credit AD'!B44</f>
-        <v>0</v>
-      </c>
-      <c r="E94" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G94" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="H94" s="27"/>
-      <c r="I94" s="16"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
@@ -2940,133 +3036,187 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="27" t="s">
+      <c r="A107" t="s">
         <v>45</v>
       </c>
-      <c r="B107" s="27" t="s">
+      <c r="B107" t="s">
         <v>46</v>
       </c>
-      <c r="C107" s="27" t="s">
+      <c r="C107" t="s">
         <v>44</v>
       </c>
-      <c r="D107" s="33">
+      <c r="D107" s="13">
         <f>Transportation!B6</f>
         <v>59.6</v>
       </c>
-      <c r="E107" s="27" t="s">
+      <c r="E107" t="s">
         <v>47</v>
       </c>
-      <c r="F107" s="31" t="s">
+      <c r="F107" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G107" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>196</v>
+      </c>
+      <c r="B108" t="s">
+        <v>197</v>
+      </c>
+      <c r="C108" t="s">
+        <v>54</v>
+      </c>
+      <c r="D108">
+        <v>0.68883085661884558</v>
+      </c>
+      <c r="E108" t="s">
+        <v>50</v>
+      </c>
+      <c r="F108" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G108" t="s">
+        <v>19</v>
+      </c>
+      <c r="I108" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>135</v>
+      </c>
+      <c r="C109" t="s">
+        <v>54</v>
+      </c>
+      <c r="D109" s="13">
+        <v>73.250026790475331</v>
+      </c>
+      <c r="F109" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G109" t="s">
+        <v>60</v>
+      </c>
+      <c r="H109" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>183</v>
+      </c>
+      <c r="C110" t="s">
+        <v>54</v>
+      </c>
+      <c r="D110" s="13">
+        <v>2.33552297919117</v>
+      </c>
+      <c r="F110" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G110" t="s">
+        <v>60</v>
+      </c>
+      <c r="H110" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>185</v>
+      </c>
+      <c r="B111" t="s">
+        <v>184</v>
+      </c>
+      <c r="C111" t="s">
+        <v>57</v>
+      </c>
+      <c r="D111">
+        <v>109.57129105566415</v>
+      </c>
+      <c r="E111" t="s">
         <v>192</v>
       </c>
-      <c r="G107" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H107" s="27"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="B108" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="C108" s="27" t="str">
-        <f>C91</f>
-        <v>megajoule</v>
-      </c>
-      <c r="D108" s="27">
-        <f>D91</f>
-        <v>3.363377457000001E-4</v>
-      </c>
-      <c r="E108" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="F108" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G108" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H108" s="27"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="B109" s="27"/>
-      <c r="C109" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D109" s="33">
-        <v>73.250026790475331</v>
-      </c>
-      <c r="E109" s="27"/>
-      <c r="F109" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="G109" s="27" t="s">
+      <c r="F111" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G111" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>65</v>
+      </c>
+      <c r="C112" t="s">
+        <v>54</v>
+      </c>
+      <c r="D112" s="10">
+        <v>5.1972444828385896E-3</v>
+      </c>
+      <c r="F112" t="s">
+        <v>189</v>
+      </c>
+      <c r="G112" t="s">
         <v>60</v>
       </c>
-      <c r="H109" s="27" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="B110" s="27"/>
-      <c r="C110" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D110" s="33">
-        <v>16.43865381141773</v>
-      </c>
-      <c r="E110" s="27"/>
-      <c r="F110" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="G110" s="27" t="s">
+      <c r="H112" t="s">
+        <v>61</v>
+      </c>
+      <c r="I112" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>64</v>
+      </c>
+      <c r="C113" t="s">
+        <v>54</v>
+      </c>
+      <c r="D113" s="11">
+        <v>21.671376530106802</v>
+      </c>
+      <c r="F113" t="s">
+        <v>189</v>
+      </c>
+      <c r="G113" t="s">
         <v>60</v>
       </c>
-      <c r="H110" s="27" t="s">
+      <c r="H113" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="B111" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="C111" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D111" s="27">
-        <f>'Natural gas credit AD'!B61</f>
-        <v>0</v>
-      </c>
-      <c r="E111" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="F111" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G111" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="H111" s="27"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D112" s="10"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D113" s="11"/>
+      <c r="I113" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D114" s="11"/>
+      <c r="A114" t="s">
+        <v>34</v>
+      </c>
+      <c r="B114" t="s">
+        <v>35</v>
+      </c>
+      <c r="C114" t="s">
+        <v>36</v>
+      </c>
+      <c r="D114">
+        <v>36.273732772249062</v>
+      </c>
+      <c r="E114" t="s">
+        <v>5</v>
+      </c>
+      <c r="F114" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G114" t="str">
+        <f>G108</f>
+        <v>technosphere</v>
+      </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D115" s="11"/>
@@ -3146,7 +3296,7 @@
       <c r="A123" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I123" s="15"/>
+      <c r="I123" s="14"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
@@ -3203,168 +3353,221 @@
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="27" t="s">
+      <c r="A126" t="s">
         <v>45</v>
       </c>
-      <c r="B126" s="27" t="s">
+      <c r="B126" t="s">
         <v>46</v>
       </c>
-      <c r="C126" s="27" t="s">
+      <c r="C126" t="s">
         <v>44</v>
       </c>
-      <c r="D126" s="33">
+      <c r="D126" s="13">
         <f>Transportation!B7</f>
         <v>77.400000000000006</v>
       </c>
-      <c r="E126" s="27" t="s">
+      <c r="E126" t="s">
         <v>47</v>
       </c>
-      <c r="F126" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G126" s="27" t="s">
+      <c r="F126" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G126" t="s">
         <v>19</v>
       </c>
-      <c r="H126" s="27"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="B127" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="C127" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D127" s="27">
-        <f>D108</f>
-        <v>3.363377457000001E-4</v>
-      </c>
-      <c r="E127" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="F127" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G127" s="27" t="s">
+      <c r="A127" t="s">
+        <v>196</v>
+      </c>
+      <c r="B127" t="s">
+        <v>197</v>
+      </c>
+      <c r="C127" t="s">
+        <v>54</v>
+      </c>
+      <c r="D127">
+        <v>0.68883085661884558</v>
+      </c>
+      <c r="E127" t="s">
+        <v>50</v>
+      </c>
+      <c r="F127" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G127" t="s">
         <v>19</v>
       </c>
-      <c r="H127" s="27"/>
+      <c r="I127" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="27" t="s">
+      <c r="A128" t="s">
         <v>135</v>
       </c>
-      <c r="B128" s="27"/>
-      <c r="C128" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D128" s="33">
+      <c r="C128" t="s">
+        <v>54</v>
+      </c>
+      <c r="D128" s="13">
         <v>73.250026790475331</v>
       </c>
-      <c r="E128" s="27"/>
-      <c r="F128" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="G128" s="27" t="s">
+      <c r="F128" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G128" t="s">
         <v>60</v>
       </c>
-      <c r="H128" s="27" t="s">
-        <v>186</v>
+      <c r="H128" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="B129" s="27"/>
-      <c r="C129" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D129" s="33">
-        <v>16.43865381141773</v>
-      </c>
-      <c r="E129" s="27"/>
-      <c r="F129" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="G129" s="27" t="s">
+      <c r="A129" t="s">
+        <v>183</v>
+      </c>
+      <c r="C129" t="s">
+        <v>54</v>
+      </c>
+      <c r="D129" s="13">
+        <f>'Comparing windrow models'!F23</f>
+        <v>2.33552297919117</v>
+      </c>
+      <c r="F129" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G129" t="s">
         <v>60</v>
       </c>
-      <c r="H129" s="27" t="s">
+      <c r="H129" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="27" t="s">
+      <c r="A130" t="s">
         <v>34</v>
       </c>
-      <c r="B130" s="27" t="s">
+      <c r="B130" t="s">
         <v>35</v>
       </c>
-      <c r="C130" s="27" t="s">
+      <c r="C130" t="s">
         <v>36</v>
       </c>
-      <c r="D130" s="27">
-        <f>-87.3257750709899*0.90718474</f>
-        <v>-79.220610553074465</v>
-      </c>
-      <c r="E130" s="27" t="s">
+      <c r="D130">
+        <f>'Comparing windrow models'!C28</f>
+        <v>36.273732772249062</v>
+      </c>
+      <c r="E130" t="s">
         <v>5</v>
       </c>
-      <c r="F130" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G130" s="27" t="s">
+      <c r="F130" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G130" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>65</v>
+      </c>
+      <c r="C131" t="s">
+        <v>54</v>
+      </c>
+      <c r="D131" s="10">
+        <f>'Comparing windrow models'!F27</f>
+        <v>5.1972444828385896E-3</v>
+      </c>
+      <c r="F131" t="s">
+        <v>189</v>
+      </c>
+      <c r="G131" t="s">
+        <v>60</v>
+      </c>
+      <c r="H131" t="s">
+        <v>61</v>
+      </c>
+      <c r="I131" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>34</v>
+      </c>
+      <c r="B132" t="s">
+        <v>35</v>
+      </c>
+      <c r="C132" t="s">
+        <v>36</v>
+      </c>
+      <c r="D132">
+        <f>D149</f>
+        <v>76.028933376892383</v>
+      </c>
+      <c r="E132" t="s">
+        <v>5</v>
+      </c>
+      <c r="F132" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G132" t="s">
         <v>68</v>
       </c>
-      <c r="H130" s="27"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+      <c r="A133" t="s">
+        <v>64</v>
+      </c>
+      <c r="C133" t="s">
+        <v>54</v>
+      </c>
+      <c r="D133" s="11">
+        <f>'Comparing windrow models'!F26</f>
+        <v>21.671376530106802</v>
+      </c>
+      <c r="F133" t="s">
+        <v>189</v>
+      </c>
+      <c r="G133" t="s">
+        <v>60</v>
+      </c>
+      <c r="H133" t="s">
+        <v>61</v>
+      </c>
+      <c r="I133" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B134" t="s">
         <v>23</v>
       </c>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B135" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B136" s="6">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -3376,10 +3579,10 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B137" s="6">
+        <v>1</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
@@ -3389,242 +3592,292 @@
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>9</v>
-      </c>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B141" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C141" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D140" s="8" t="s">
+      <c r="D141" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="E141" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F140" s="3" t="s">
+      <c r="F141" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G140" s="3" t="s">
+      <c r="G141" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H140" s="3" t="s">
+      <c r="H141" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I140" t="s">
+      <c r="I141" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" t="str">
-        <f>B133</f>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="str">
+        <f>B134</f>
         <v>Landfill_st-nicephore</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B142" t="s">
         <v>16</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C142" t="s">
         <v>8</v>
       </c>
-      <c r="D141" s="12">
+      <c r="D142" s="12">
         <v>1</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E142" t="s">
         <v>5</v>
       </c>
-      <c r="F141" t="str">
+      <c r="F142" t="str">
         <f>$B$1</f>
         <v>OWM Facilities</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G142" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>45</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B143" t="s">
         <v>46</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C143" t="s">
         <v>44</v>
       </c>
-      <c r="D142" s="14">
+      <c r="D143" s="13">
         <f>Transportation!B9</f>
         <v>120</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E143" t="s">
         <v>47</v>
       </c>
-      <c r="F142" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G142" t="s">
+      <c r="F143" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G143" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="B143" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="C143" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D143" s="33">
-        <v>3.363377457000001E-4</v>
-      </c>
-      <c r="E143" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="F143" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G143" s="27" t="s">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>196</v>
+      </c>
+      <c r="B144" t="s">
+        <v>197</v>
+      </c>
+      <c r="C144" t="s">
+        <v>54</v>
+      </c>
+      <c r="D144">
+        <v>0.68883085661884558</v>
+      </c>
+      <c r="E144" t="s">
+        <v>50</v>
+      </c>
+      <c r="F144" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G144" t="s">
         <v>19</v>
       </c>
-      <c r="H143" s="27"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="27" t="s">
+      <c r="I144" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>135</v>
       </c>
-      <c r="B144" s="27"/>
-      <c r="C144" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D144" s="33">
+      <c r="C145" t="s">
+        <v>54</v>
+      </c>
+      <c r="D145" s="13">
         <v>73.250026790475331</v>
       </c>
-      <c r="E144" s="27"/>
-      <c r="F144" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="G144" s="27" t="s">
+      <c r="F145" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G145" t="s">
         <v>60</v>
       </c>
-      <c r="H144" s="27" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="B145" s="27"/>
-      <c r="C145" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D145" s="33">
-        <v>16.43865381141773</v>
-      </c>
-      <c r="E145" s="27"/>
-      <c r="F145" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="G145" s="27" t="s">
+      <c r="H145" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>183</v>
+      </c>
+      <c r="C146" t="s">
+        <v>54</v>
+      </c>
+      <c r="D146" s="13">
+        <v>2.33552297919117</v>
+      </c>
+      <c r="F146" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G146" t="s">
         <v>60</v>
       </c>
-      <c r="H145" s="27" t="s">
+      <c r="H146" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="27" t="s">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>34</v>
       </c>
-      <c r="B146" s="27" t="s">
+      <c r="B147" t="s">
         <v>35</v>
       </c>
-      <c r="C146" s="27" t="s">
+      <c r="C147" t="s">
         <v>36</v>
       </c>
-      <c r="D146" s="27">
-        <f>-87.3257750709899*0.90718474</f>
-        <v>-79.220610553074465</v>
-      </c>
-      <c r="E146" s="27" t="str">
-        <f>E141</f>
-        <v>CA-QC</v>
-      </c>
-      <c r="F146" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G146" s="27" t="s">
+      <c r="D147">
+        <v>36.273732772249062</v>
+      </c>
+      <c r="E147" t="s">
+        <v>5</v>
+      </c>
+      <c r="F147" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G147" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>65</v>
+      </c>
+      <c r="C148" t="s">
+        <v>54</v>
+      </c>
+      <c r="D148" s="10">
+        <v>5.1972444828385896E-3</v>
+      </c>
+      <c r="F148" t="s">
+        <v>189</v>
+      </c>
+      <c r="G148" t="s">
+        <v>60</v>
+      </c>
+      <c r="H148" t="s">
+        <v>61</v>
+      </c>
+      <c r="I148" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>34</v>
+      </c>
+      <c r="B149" t="s">
+        <v>35</v>
+      </c>
+      <c r="C149" t="s">
+        <v>36</v>
+      </c>
+      <c r="D149">
+        <f>'Comparing windrow models'!D24</f>
+        <v>76.028933376892383</v>
+      </c>
+      <c r="E149" t="s">
+        <v>5</v>
+      </c>
+      <c r="F149" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G149" t="s">
         <v>68</v>
       </c>
-      <c r="H146" s="27"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>64</v>
+      </c>
+      <c r="C150" t="s">
+        <v>54</v>
+      </c>
+      <c r="D150" s="11">
+        <v>21.671376530106802</v>
+      </c>
+      <c r="F150" t="s">
+        <v>189</v>
+      </c>
+      <c r="G150" t="s">
+        <v>60</v>
+      </c>
+      <c r="H150" t="s">
+        <v>61</v>
+      </c>
+      <c r="I150" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B151" t="s">
         <v>24</v>
       </c>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="2"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B152" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="5"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B152" s="6">
-        <v>1</v>
-      </c>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
@@ -3634,2520 +3887,2461 @@
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
     </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B154" s="6">
+        <v>1</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+    </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B158" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C158" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D156" s="8" t="s">
+      <c r="D158" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E156" s="3" t="s">
+      <c r="E158" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F156" s="3" t="s">
+      <c r="F158" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G156" s="3" t="s">
+      <c r="G158" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H156" s="3" t="s">
+      <c r="H158" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I156" t="s">
+      <c r="I158" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" t="str">
-        <f>B149</f>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="str">
+        <f>B151</f>
         <v>Landfill_cecile_de_milton</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B159" t="s">
         <v>16</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C159" t="s">
         <v>8</v>
       </c>
-      <c r="D157" s="12">
+      <c r="D159" s="12">
         <v>1</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E159" t="s">
         <v>5</v>
       </c>
-      <c r="F157" t="str">
+      <c r="F159" t="str">
         <f>$B$1</f>
         <v>OWM Facilities</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G159" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="27" t="s">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>45</v>
       </c>
-      <c r="B158" s="27" t="s">
+      <c r="B160" t="s">
         <v>46</v>
       </c>
-      <c r="C158" s="27" t="s">
+      <c r="C160" t="s">
         <v>44</v>
       </c>
-      <c r="D158" s="33">
+      <c r="D160" s="13">
         <f>Transportation!B10</f>
         <v>86</v>
       </c>
-      <c r="E158" s="27" t="s">
+      <c r="E160" t="s">
         <v>47</v>
       </c>
-      <c r="F158" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G158" s="27" t="s">
+      <c r="F160" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G160" t="s">
         <v>19</v>
       </c>
-      <c r="H158" s="27"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="B159" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="C159" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D159" s="33">
-        <v>3.363377457000001E-4</v>
-      </c>
-      <c r="E159" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="F159" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G159" s="27" t="s">
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>196</v>
+      </c>
+      <c r="B161" t="s">
+        <v>197</v>
+      </c>
+      <c r="C161" t="s">
+        <v>54</v>
+      </c>
+      <c r="D161">
+        <v>0.68883085661884558</v>
+      </c>
+      <c r="E161" t="s">
+        <v>50</v>
+      </c>
+      <c r="F161" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G161" t="s">
         <v>19</v>
       </c>
-      <c r="H159" s="27"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="27" t="s">
+      <c r="I161" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>135</v>
       </c>
-      <c r="B160" s="27"/>
-      <c r="C160" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D160" s="33">
-        <f>'[1]Landfill LCA'!$M$23*0.90718474*1000</f>
+      <c r="C162" t="s">
+        <v>54</v>
+      </c>
+      <c r="D162" s="13">
         <v>73.250026790475331</v>
       </c>
-      <c r="E160" s="27"/>
-      <c r="F160" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="G160" s="27" t="s">
+      <c r="F162" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G162" t="s">
         <v>60</v>
       </c>
-      <c r="H160" s="27" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="B161" s="27"/>
-      <c r="C161" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D161" s="33">
-        <f>'[1]Landfill LCA'!$W$27*0.90718474*1000</f>
-        <v>16.43865381141773</v>
-      </c>
-      <c r="E161" s="27"/>
-      <c r="F161" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="G161" s="27" t="s">
+      <c r="H162" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>183</v>
+      </c>
+      <c r="C163" t="s">
+        <v>54</v>
+      </c>
+      <c r="D163" s="13">
+        <v>2.33552297919117</v>
+      </c>
+      <c r="F163" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G163" t="s">
         <v>60</v>
       </c>
-      <c r="H161" s="27" t="s">
+      <c r="H163" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="27" t="s">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>34</v>
       </c>
-      <c r="B162" s="27" t="s">
+      <c r="B164" t="s">
         <v>35</v>
       </c>
-      <c r="C162" s="27" t="s">
+      <c r="C164" t="s">
         <v>36</v>
       </c>
-      <c r="D162" s="27">
-        <f>-87.3257750709899*0.90718474</f>
-        <v>-79.220610553074465</v>
-      </c>
-      <c r="E162" s="27" t="str">
-        <f>E157</f>
-        <v>CA-QC</v>
-      </c>
-      <c r="F162" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G162" s="27" t="s">
+      <c r="D164">
+        <v>36.273732772249062</v>
+      </c>
+      <c r="E164" t="s">
+        <v>5</v>
+      </c>
+      <c r="F164" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G164" t="str">
+        <f>G147</f>
+        <v>technosphere</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>65</v>
+      </c>
+      <c r="C165" t="s">
+        <v>54</v>
+      </c>
+      <c r="D165" s="10">
+        <v>5.1972444828385896E-3</v>
+      </c>
+      <c r="F165" t="s">
+        <v>189</v>
+      </c>
+      <c r="G165" t="s">
+        <v>60</v>
+      </c>
+      <c r="H165" t="s">
+        <v>61</v>
+      </c>
+      <c r="I165" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>34</v>
+      </c>
+      <c r="B166" t="s">
+        <v>35</v>
+      </c>
+      <c r="C166" t="s">
+        <v>36</v>
+      </c>
+      <c r="D166">
+        <f>D149</f>
+        <v>76.028933376892383</v>
+      </c>
+      <c r="E166" t="s">
+        <v>5</v>
+      </c>
+      <c r="F166" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G166" t="s">
         <v>68</v>
       </c>
-      <c r="H162" s="27"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>64</v>
+      </c>
+      <c r="C167" t="s">
+        <v>54</v>
+      </c>
+      <c r="D167" s="11">
+        <v>21.671376530106802</v>
+      </c>
+      <c r="F167" t="s">
+        <v>189</v>
+      </c>
+      <c r="G167" t="s">
+        <v>60</v>
+      </c>
+      <c r="H167" t="s">
+        <v>61</v>
+      </c>
+      <c r="I167" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B168" t="s">
         <v>25</v>
       </c>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
-      <c r="G164" s="2"/>
-      <c r="H164" s="2"/>
-      <c r="I164" s="2"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B169" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B170" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="5"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B167" s="6">
+      <c r="B171" s="6">
         <v>1</v>
       </c>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
-      <c r="F167" s="5"/>
-      <c r="G167" s="5"/>
-      <c r="H167" s="5"/>
-      <c r="I167" s="5"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B172" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
-      <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
-      <c r="I168" s="5"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="3" t="s">
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="5"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B175" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C175" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D171" s="8" t="s">
+      <c r="D175" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E171" s="3" t="s">
+      <c r="E175" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F171" s="3" t="s">
+      <c r="F175" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G171" s="3" t="s">
+      <c r="G175" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H171" s="3" t="s">
+      <c r="H175" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I171" t="s">
+      <c r="I175" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" t="str">
-        <f>B164</f>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" t="str">
+        <f>B168</f>
         <v>Composter_casselman</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B176" t="s">
         <v>16</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C176" t="s">
         <v>8</v>
       </c>
-      <c r="D172" s="9">
+      <c r="D176" s="9">
         <v>1</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E176" t="s">
         <v>5</v>
       </c>
-      <c r="F172" t="str">
+      <c r="F176" t="str">
         <f>$B$1</f>
         <v>OWM Facilities</v>
       </c>
-      <c r="G172" t="s">
+      <c r="G176" t="s">
         <v>17</v>
       </c>
-      <c r="H172" s="3"/>
-      <c r="I172" t="s">
+      <c r="H176" s="3"/>
+      <c r="I176" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="28" t="s">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B173" s="27" t="s">
+      <c r="B177" t="s">
         <v>35</v>
       </c>
-      <c r="C173" s="27" t="s">
+      <c r="C177" t="s">
         <v>36</v>
       </c>
-      <c r="D173" s="27">
+      <c r="D177">
         <v>1.6772116902968379</v>
       </c>
-      <c r="E173" s="27" t="s">
+      <c r="E177" t="s">
         <v>5</v>
       </c>
-      <c r="F173" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G173" s="27" t="s">
+      <c r="F177" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G177" t="s">
         <v>19</v>
       </c>
-      <c r="H173" s="27"/>
-      <c r="I173" s="27" t="s">
+      <c r="I177" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="B174" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="C174" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D174" s="33">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>196</v>
+      </c>
+      <c r="B178" t="s">
+        <v>197</v>
+      </c>
+      <c r="C178" t="s">
+        <v>54</v>
+      </c>
+      <c r="D178" s="13">
         <v>2.5320055641349066</v>
       </c>
-      <c r="E174" s="27" t="s">
+      <c r="E178" t="s">
         <v>50</v>
       </c>
-      <c r="F174" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G174" s="27" t="s">
+      <c r="F178" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G178" t="s">
         <v>19</v>
       </c>
-      <c r="H174" s="27"/>
-      <c r="I174" s="27" t="s">
+      <c r="I178" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="27" t="s">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>45</v>
       </c>
-      <c r="B175" s="27" t="s">
+      <c r="B179" t="s">
         <v>46</v>
       </c>
-      <c r="C175" s="27" t="s">
+      <c r="C179" t="s">
         <v>44</v>
       </c>
-      <c r="D175" s="30">
+      <c r="D179" s="10">
         <f>Transportation!B11</f>
         <v>170</v>
       </c>
-      <c r="E175" s="27" t="s">
+      <c r="E179" t="s">
         <v>47</v>
       </c>
-      <c r="F175" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G175" s="27" t="s">
+      <c r="F179" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G179" t="s">
         <v>19</v>
       </c>
-      <c r="H175" s="27"/>
-      <c r="I175" s="27" t="s">
+      <c r="I179" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="B176" s="27" t="s">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>191</v>
+      </c>
+      <c r="B180" t="s">
         <v>56</v>
       </c>
-      <c r="C176" s="27" t="s">
+      <c r="C180" t="s">
         <v>57</v>
       </c>
-      <c r="D176" s="27">
+      <c r="D180">
         <v>7.28915519494213</v>
       </c>
-      <c r="E176" s="27" t="s">
+      <c r="E180" t="s">
         <v>5</v>
       </c>
-      <c r="F176" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G176" s="27" t="s">
+      <c r="F180" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G180" t="s">
         <v>19</v>
       </c>
-      <c r="H176" s="27"/>
-      <c r="I176" s="27" t="s">
+      <c r="I180" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="27" t="s">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>63</v>
       </c>
-      <c r="B177" s="27"/>
-      <c r="C177" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D177" s="27">
+      <c r="C181" t="s">
+        <v>54</v>
+      </c>
+      <c r="D181">
         <v>5.6135340059469772E-4</v>
       </c>
-      <c r="E177" s="27"/>
-      <c r="F177" s="31" t="s">
+      <c r="F181" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G181" t="s">
+        <v>60</v>
+      </c>
+      <c r="H181" t="s">
+        <v>61</v>
+      </c>
+      <c r="I181" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>65</v>
+      </c>
+      <c r="C182" t="s">
+        <v>54</v>
+      </c>
+      <c r="D182">
+        <v>1.3472481614272745E-5</v>
+      </c>
+      <c r="F182" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G182" t="s">
+        <v>60</v>
+      </c>
+      <c r="H182" t="s">
+        <v>61</v>
+      </c>
+      <c r="I182" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>67</v>
+      </c>
+      <c r="C183" t="s">
+        <v>54</v>
+      </c>
+      <c r="D183" s="10">
+        <v>2.6570727628149027E-3</v>
+      </c>
+      <c r="F183" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G183" t="s">
+        <v>60</v>
+      </c>
+      <c r="H183" t="s">
+        <v>61</v>
+      </c>
+      <c r="I183" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>193</v>
       </c>
-      <c r="G177" s="27" t="s">
+      <c r="C184" t="s">
+        <v>54</v>
+      </c>
+      <c r="D184" s="11">
+        <v>1.0852832411497491E-3</v>
+      </c>
+      <c r="F184" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G184" t="s">
         <v>60</v>
       </c>
-      <c r="H177" s="27" t="s">
+      <c r="H184" t="s">
         <v>61</v>
       </c>
-      <c r="I177" s="27" t="s">
+      <c r="I184" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B178" s="27"/>
-      <c r="C178" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D178" s="27">
-        <v>1.3472481614272745E-5</v>
-      </c>
-      <c r="E178" s="27"/>
-      <c r="F178" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="G178" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="H178" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="I178" s="27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B179" s="27"/>
-      <c r="C179" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D179" s="30">
-        <v>2.6570727628149027E-3</v>
-      </c>
-      <c r="E179" s="27"/>
-      <c r="F179" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="G179" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="H179" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="I179" s="27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="B180" s="27"/>
-      <c r="C180" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D180" s="32">
-        <v>1.0852832411497491E-3</v>
-      </c>
-      <c r="E180" s="27"/>
-      <c r="F180" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="G180" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="H180" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="I180" s="27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="B181" s="27" t="s">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>179</v>
+      </c>
+      <c r="B185" t="s">
         <v>145</v>
       </c>
-      <c r="C181" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D181" s="27">
+      <c r="C185" t="s">
+        <v>54</v>
+      </c>
+      <c r="D185">
         <v>0.29528799999999999</v>
       </c>
-      <c r="E181" s="27" t="s">
+      <c r="E185" t="s">
         <v>148</v>
       </c>
-      <c r="F181" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G181" s="27" t="s">
+      <c r="F185" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G185" t="s">
         <v>68</v>
       </c>
-      <c r="H181" s="27"/>
-      <c r="I181" s="27"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B182" s="27" t="s">
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>180</v>
+      </c>
+      <c r="B186" t="s">
         <v>146</v>
       </c>
-      <c r="C182" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D182" s="27">
+      <c r="C186" t="s">
+        <v>54</v>
+      </c>
+      <c r="D186">
         <v>0.168736</v>
       </c>
-      <c r="E182" s="27" t="s">
+      <c r="E186" t="s">
         <v>148</v>
       </c>
-      <c r="F182" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G182" s="27" t="s">
+      <c r="F186" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G186" t="s">
         <v>68</v>
       </c>
-      <c r="H182" s="27"/>
-      <c r="I182" s="27"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="B183" s="27" t="s">
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>194</v>
+      </c>
+      <c r="B187" t="s">
         <v>147</v>
       </c>
-      <c r="C183" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D183" s="27">
+      <c r="C187" t="s">
+        <v>54</v>
+      </c>
+      <c r="D187">
         <v>0.253104</v>
       </c>
-      <c r="E183" s="27" t="s">
+      <c r="E187" t="s">
         <v>148</v>
       </c>
-      <c r="F183" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G183" s="27" t="s">
+      <c r="F187" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G187" t="s">
         <v>68</v>
       </c>
-      <c r="H183" s="27"/>
-      <c r="I183" s="27"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D184" s="10"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D185" s="10"/>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D186" s="11"/>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B187" s="11"/>
-      <c r="D187" s="12"/>
-      <c r="F187" s="22"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F188" s="22"/>
+      <c r="D188" s="10"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F189" s="22"/>
+      <c r="D189" s="10"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D190" s="11"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
+      <c r="B191" s="11"/>
+      <c r="D191" s="12"/>
+      <c r="F191" s="20"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F192" s="20"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F193" s="20"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B195" t="s">
         <v>26</v>
       </c>
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
-      <c r="G191" s="2"/>
-      <c r="H191" s="2"/>
-      <c r="I191" s="2"/>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A192" s="3" t="s">
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B196" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" s="4" t="s">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B193" s="5" t="s">
+      <c r="B197" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C193" s="5"/>
-      <c r="D193" s="5"/>
-      <c r="E193" s="5"/>
-      <c r="F193" s="5"/>
-      <c r="G193" s="5"/>
-      <c r="H193" s="5"/>
-      <c r="I193" s="5"/>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
+      <c r="I197" s="5"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B194" s="6">
+      <c r="B198" s="6">
         <v>1</v>
       </c>
-      <c r="C194" s="5"/>
-      <c r="D194" s="5"/>
-      <c r="E194" s="5"/>
-      <c r="F194" s="5"/>
-      <c r="G194" s="5"/>
-      <c r="H194" s="5"/>
-      <c r="I194" s="5"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A195" s="4" t="s">
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5"/>
+      <c r="H198" s="5"/>
+      <c r="I198" s="5"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B195" s="7" t="s">
+      <c r="B199" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C195" s="5"/>
-      <c r="D195" s="5"/>
-      <c r="E195" s="5"/>
-      <c r="F195" s="5"/>
-      <c r="G195" s="5"/>
-      <c r="H195" s="5"/>
-      <c r="I195" s="5"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A197" s="3" t="s">
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A198" s="3" t="s">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B202" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="C202" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D198" s="8" t="s">
+      <c r="D202" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E198" s="3" t="s">
+      <c r="E202" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F198" s="3" t="s">
+      <c r="F202" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G198" s="3" t="s">
+      <c r="G202" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H198" s="3" t="s">
+      <c r="H202" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I198" t="s">
+      <c r="I202" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A199" t="str">
-        <f>B191</f>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" t="str">
+        <f>B195</f>
         <v>Composter_complexe enviro st Michel</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B203" t="s">
         <v>16</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C203" t="s">
         <v>8</v>
       </c>
-      <c r="D199" s="9">
+      <c r="D203" s="9">
         <v>1</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E203" t="s">
         <v>5</v>
       </c>
-      <c r="F199" t="str">
+      <c r="F203" t="str">
         <f>$B$1</f>
         <v>OWM Facilities</v>
       </c>
-      <c r="G199" t="s">
+      <c r="G203" t="s">
         <v>17</v>
       </c>
-      <c r="H199" s="3"/>
-      <c r="I199" t="s">
+      <c r="H203" s="3"/>
+      <c r="I203" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A200" s="9" t="s">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B204" t="s">
         <v>35</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C204" t="s">
         <v>36</v>
       </c>
-      <c r="D200">
+      <c r="D204">
         <v>1.6772116902968379</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E204" t="s">
         <v>5</v>
       </c>
-      <c r="F200" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G200" t="s">
+      <c r="F204" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G204" t="s">
         <v>19</v>
       </c>
-      <c r="I200" t="s">
+      <c r="I204" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A201" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="B201" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="C201" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D201" s="33">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>196</v>
+      </c>
+      <c r="B205" t="s">
+        <v>197</v>
+      </c>
+      <c r="C205" t="s">
+        <v>54</v>
+      </c>
+      <c r="D205" s="13">
         <v>2.5320055641349066</v>
       </c>
-      <c r="E201" s="27" t="s">
+      <c r="E205" t="s">
         <v>50</v>
       </c>
-      <c r="F201" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G201" t="s">
+      <c r="F205" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G205" t="s">
         <v>19</v>
       </c>
-      <c r="I201" t="s">
+      <c r="I205" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>45</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B206" t="s">
         <v>46</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C206" t="s">
         <v>44</v>
       </c>
-      <c r="D202" s="10">
+      <c r="D206" s="10">
         <f>Transportation!B12</f>
         <v>13</v>
       </c>
-      <c r="E202" t="s">
+      <c r="E206" t="s">
         <v>47</v>
       </c>
-      <c r="F202" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G202" t="s">
+      <c r="F206" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G206" t="s">
         <v>19</v>
       </c>
-      <c r="I202" t="s">
+      <c r="I206" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A203" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="B203" s="27" t="s">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>191</v>
+      </c>
+      <c r="B207" t="s">
         <v>56</v>
       </c>
-      <c r="C203" s="27" t="s">
+      <c r="C207" t="s">
         <v>57</v>
       </c>
-      <c r="D203" s="27">
+      <c r="D207">
         <v>7.28915519494213</v>
       </c>
-      <c r="E203" s="27" t="s">
+      <c r="E207" t="s">
         <v>5</v>
       </c>
-      <c r="F203" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G203" s="27" t="s">
+      <c r="F207" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G207" t="s">
         <v>19</v>
       </c>
-      <c r="H203" s="27"/>
-      <c r="I203" s="27" t="s">
+      <c r="I207" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A204" s="27" t="s">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>63</v>
       </c>
-      <c r="B204" s="27"/>
-      <c r="C204" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D204" s="27">
+      <c r="C208" t="s">
+        <v>54</v>
+      </c>
+      <c r="D208">
         <v>5.6135340059469772E-4</v>
       </c>
-      <c r="E204" s="27"/>
-      <c r="F204" s="31" t="s">
+      <c r="F208" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G208" t="s">
+        <v>60</v>
+      </c>
+      <c r="H208" t="s">
+        <v>61</v>
+      </c>
+      <c r="I208" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>65</v>
+      </c>
+      <c r="C209" t="s">
+        <v>54</v>
+      </c>
+      <c r="D209">
+        <v>1.3472481614272745E-5</v>
+      </c>
+      <c r="F209" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G209" t="s">
+        <v>60</v>
+      </c>
+      <c r="H209" t="s">
+        <v>61</v>
+      </c>
+      <c r="I209" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>67</v>
+      </c>
+      <c r="C210" t="s">
+        <v>54</v>
+      </c>
+      <c r="D210" s="10">
+        <v>2.6570727628149027E-3</v>
+      </c>
+      <c r="F210" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G210" t="s">
+        <v>60</v>
+      </c>
+      <c r="H210" t="s">
+        <v>61</v>
+      </c>
+      <c r="I210" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>193</v>
       </c>
-      <c r="G204" s="27" t="s">
+      <c r="C211" t="s">
+        <v>54</v>
+      </c>
+      <c r="D211" s="11">
+        <v>1.0852832411497491E-3</v>
+      </c>
+      <c r="F211" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G211" t="s">
         <v>60</v>
       </c>
-      <c r="H204" s="27" t="s">
+      <c r="H211" t="s">
         <v>61</v>
       </c>
-      <c r="I204" s="27" t="s">
+      <c r="I211" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A205" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B205" s="27"/>
-      <c r="C205" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D205" s="27">
-        <v>1.3472481614272745E-5</v>
-      </c>
-      <c r="E205" s="27"/>
-      <c r="F205" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="G205" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="H205" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="I205" s="27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A206" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B206" s="27"/>
-      <c r="C206" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D206" s="30">
-        <v>2.6570727628149027E-3</v>
-      </c>
-      <c r="E206" s="27"/>
-      <c r="F206" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="G206" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="H206" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="I206" s="27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A207" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="B207" s="27"/>
-      <c r="C207" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D207" s="32">
-        <v>1.0852832411497491E-3</v>
-      </c>
-      <c r="E207" s="27"/>
-      <c r="F207" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="G207" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="H207" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="I207" s="27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A208" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="B208" s="27" t="s">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>179</v>
+      </c>
+      <c r="B212" t="s">
         <v>145</v>
       </c>
-      <c r="C208" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D208" s="27">
+      <c r="C212" t="s">
+        <v>54</v>
+      </c>
+      <c r="D212">
         <v>0.29528799999999999</v>
       </c>
-      <c r="E208" s="27" t="s">
+      <c r="E212" t="s">
         <v>148</v>
       </c>
-      <c r="F208" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G208" s="27" t="s">
+      <c r="F212" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G212" t="s">
         <v>68</v>
       </c>
-      <c r="H208" s="27"/>
-      <c r="I208" s="27"/>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A209" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B209" s="27" t="s">
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>180</v>
+      </c>
+      <c r="B213" t="s">
         <v>146</v>
       </c>
-      <c r="C209" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D209" s="27">
+      <c r="C213" t="s">
+        <v>54</v>
+      </c>
+      <c r="D213">
         <v>0.168736</v>
       </c>
-      <c r="E209" s="27" t="s">
+      <c r="E213" t="s">
         <v>148</v>
       </c>
-      <c r="F209" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G209" s="27" t="s">
+      <c r="F213" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G213" t="s">
         <v>68</v>
       </c>
-      <c r="H209" s="27"/>
-      <c r="I209" s="27"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A210" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="B210" s="27" t="s">
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>194</v>
+      </c>
+      <c r="B214" t="s">
         <v>147</v>
       </c>
-      <c r="C210" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D210" s="27">
+      <c r="C214" t="s">
+        <v>54</v>
+      </c>
+      <c r="D214">
         <v>0.253104</v>
       </c>
-      <c r="E210" s="27" t="s">
+      <c r="E214" t="s">
         <v>148</v>
       </c>
-      <c r="F210" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G210" s="27" t="s">
+      <c r="F214" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G214" t="s">
         <v>68</v>
       </c>
-      <c r="H210" s="27"/>
-      <c r="I210" s="27"/>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D211" s="10"/>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D212" s="10"/>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D213" s="11"/>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B214" s="11"/>
-      <c r="D214" s="12"/>
-      <c r="F214" s="22"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F215" s="22"/>
+      <c r="D215" s="10"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F216" s="22"/>
+      <c r="D216" s="10"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D217" s="11"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
+      <c r="B218" s="11"/>
+      <c r="D218" s="12"/>
+      <c r="F218" s="20"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F219" s="20"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F220" s="20"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B222" t="s">
         <v>27</v>
       </c>
-      <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
-      <c r="F218" s="2"/>
-      <c r="G218" s="2"/>
-      <c r="H218" s="2"/>
-      <c r="I218" s="2"/>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A219" s="3" t="s">
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
+      <c r="G222" s="2"/>
+      <c r="H222" s="2"/>
+      <c r="I222" s="2"/>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B223" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A220" s="4" t="s">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B220" s="5" t="s">
+      <c r="B224" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C220" s="5"/>
-      <c r="D220" s="5"/>
-      <c r="E220" s="5"/>
-      <c r="F220" s="5"/>
-      <c r="G220" s="5"/>
-      <c r="H220" s="5"/>
-      <c r="I220" s="5"/>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A221" s="4" t="s">
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="5"/>
+      <c r="F224" s="5"/>
+      <c r="G224" s="5"/>
+      <c r="H224" s="5"/>
+      <c r="I224" s="5"/>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B221" s="6">
+      <c r="B225" s="6">
         <v>1</v>
       </c>
-      <c r="C221" s="5"/>
-      <c r="D221" s="5"/>
-      <c r="E221" s="5"/>
-      <c r="F221" s="5"/>
-      <c r="G221" s="5"/>
-      <c r="H221" s="5"/>
-      <c r="I221" s="5"/>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A222" s="4" t="s">
+      <c r="C225" s="5"/>
+      <c r="D225" s="5"/>
+      <c r="E225" s="5"/>
+      <c r="F225" s="5"/>
+      <c r="G225" s="5"/>
+      <c r="H225" s="5"/>
+      <c r="I225" s="5"/>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B222" s="7" t="s">
+      <c r="B226" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C222" s="5"/>
-      <c r="D222" s="5"/>
-      <c r="E222" s="5"/>
-      <c r="F222" s="5"/>
-      <c r="G222" s="5"/>
-      <c r="H222" s="5"/>
-      <c r="I222" s="5"/>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A224" s="3" t="s">
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="5"/>
+      <c r="F226" s="5"/>
+      <c r="G226" s="5"/>
+      <c r="H226" s="5"/>
+      <c r="I226" s="5"/>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A225" s="3" t="s">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="B229" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C225" s="3" t="s">
+      <c r="C229" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D225" s="8" t="s">
+      <c r="D229" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E225" s="3" t="s">
+      <c r="E229" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F225" s="3" t="s">
+      <c r="F229" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G225" s="3" t="s">
+      <c r="G229" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H225" s="3" t="s">
+      <c r="H229" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I225" t="s">
+      <c r="I229" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>27</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B230" t="s">
         <v>16</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C230" t="s">
         <v>8</v>
       </c>
-      <c r="D226" s="9">
+      <c r="D230" s="9">
         <v>1</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E230" t="s">
         <v>5</v>
       </c>
-      <c r="F226" t="str">
+      <c r="F230" t="str">
         <f>$B$1</f>
         <v>OWM Facilities</v>
       </c>
-      <c r="G226" t="s">
+      <c r="G230" t="s">
         <v>17</v>
       </c>
-      <c r="H226" s="3"/>
-      <c r="I226" t="s">
+      <c r="H230" s="3"/>
+      <c r="I230" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A227" s="9" t="s">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B231" t="s">
         <v>35</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C231" t="s">
         <v>36</v>
       </c>
-      <c r="D227">
+      <c r="D231">
         <v>1.6772116902968379</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E231" t="s">
         <v>5</v>
       </c>
-      <c r="F227" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G227" t="s">
+      <c r="F231" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G231" t="s">
         <v>19</v>
       </c>
-      <c r="I227" t="s">
+      <c r="I231" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A228" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="B228" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="C228" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D228" s="33">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>196</v>
+      </c>
+      <c r="B232" t="s">
+        <v>197</v>
+      </c>
+      <c r="C232" t="s">
+        <v>54</v>
+      </c>
+      <c r="D232" s="13">
         <v>2.5320055641349066</v>
       </c>
-      <c r="E228" s="27" t="s">
+      <c r="E232" t="s">
         <v>50</v>
       </c>
-      <c r="F228" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G228" t="s">
+      <c r="F232" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G232" t="s">
         <v>19</v>
       </c>
-      <c r="I228" t="s">
+      <c r="I232" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>45</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B233" t="s">
         <v>46</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C233" t="s">
         <v>44</v>
       </c>
-      <c r="D229" s="10">
+      <c r="D233" s="10">
         <f>Transportation!B13</f>
         <v>15.6</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E233" t="s">
         <v>47</v>
       </c>
-      <c r="F229" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G229" t="s">
+      <c r="F233" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G233" t="s">
         <v>19</v>
       </c>
-      <c r="I229" t="s">
+      <c r="I233" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>195</v>
-      </c>
-      <c r="B230" t="s">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>191</v>
+      </c>
+      <c r="B234" t="s">
         <v>56</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C234" t="s">
         <v>57</v>
       </c>
-      <c r="D230">
+      <c r="D234">
         <v>7.28915519494213</v>
       </c>
-      <c r="E230" t="s">
+      <c r="E234" t="s">
         <v>5</v>
       </c>
-      <c r="F230" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G230" t="s">
+      <c r="F234" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G234" t="s">
         <v>19</v>
       </c>
-      <c r="I230" t="s">
+      <c r="I234" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>63</v>
       </c>
-      <c r="C231" t="s">
-        <v>54</v>
-      </c>
-      <c r="D231">
+      <c r="C235" t="s">
+        <v>54</v>
+      </c>
+      <c r="D235">
         <v>5.6135340059469772E-4</v>
       </c>
-      <c r="F231" s="22" t="s">
+      <c r="F235" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G235" t="s">
+        <v>60</v>
+      </c>
+      <c r="H235" t="s">
+        <v>61</v>
+      </c>
+      <c r="I235" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>65</v>
+      </c>
+      <c r="C236" t="s">
+        <v>54</v>
+      </c>
+      <c r="D236">
+        <v>1.3472481614272745E-5</v>
+      </c>
+      <c r="F236" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G236" t="s">
+        <v>60</v>
+      </c>
+      <c r="H236" t="s">
+        <v>61</v>
+      </c>
+      <c r="I236" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>67</v>
+      </c>
+      <c r="C237" t="s">
+        <v>54</v>
+      </c>
+      <c r="D237" s="10">
+        <v>2.6570727628149027E-3</v>
+      </c>
+      <c r="F237" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G237" t="s">
+        <v>60</v>
+      </c>
+      <c r="H237" t="s">
+        <v>61</v>
+      </c>
+      <c r="I237" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>193</v>
       </c>
-      <c r="G231" t="s">
+      <c r="C238" t="s">
+        <v>54</v>
+      </c>
+      <c r="D238" s="11">
+        <v>1.0852832411497491E-3</v>
+      </c>
+      <c r="F238" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G238" t="s">
         <v>60</v>
       </c>
-      <c r="H231" t="s">
+      <c r="H238" t="s">
         <v>61</v>
       </c>
-      <c r="I231" t="s">
+      <c r="I238" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>65</v>
-      </c>
-      <c r="C232" t="s">
-        <v>54</v>
-      </c>
-      <c r="D232">
-        <v>1.3472481614272745E-5</v>
-      </c>
-      <c r="F232" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="G232" t="s">
-        <v>60</v>
-      </c>
-      <c r="H232" t="s">
-        <v>61</v>
-      </c>
-      <c r="I232" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>67</v>
-      </c>
-      <c r="C233" t="s">
-        <v>54</v>
-      </c>
-      <c r="D233" s="10">
-        <v>2.6570727628149027E-3</v>
-      </c>
-      <c r="F233" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="G233" t="s">
-        <v>60</v>
-      </c>
-      <c r="H233" t="s">
-        <v>61</v>
-      </c>
-      <c r="I233" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A234" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="B234" s="27"/>
-      <c r="C234" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D234" s="32">
-        <v>1.0852832411497491E-3</v>
-      </c>
-      <c r="E234" s="27"/>
-      <c r="F234" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="G234" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="H234" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="I234" s="27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A235" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="B235" s="27" t="s">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>179</v>
+      </c>
+      <c r="B239" t="s">
         <v>145</v>
       </c>
-      <c r="C235" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D235" s="27">
+      <c r="C239" t="s">
+        <v>54</v>
+      </c>
+      <c r="D239">
         <v>0.29528799999999999</v>
       </c>
-      <c r="E235" s="27" t="s">
+      <c r="E239" t="s">
         <v>148</v>
       </c>
-      <c r="F235" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G235" s="27" t="s">
+      <c r="F239" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G239" t="s">
         <v>68</v>
       </c>
-      <c r="H235" s="27"/>
-      <c r="I235" s="27"/>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A236" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B236" s="27" t="s">
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>180</v>
+      </c>
+      <c r="B240" t="s">
         <v>146</v>
       </c>
-      <c r="C236" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D236" s="27">
+      <c r="C240" t="s">
+        <v>54</v>
+      </c>
+      <c r="D240">
         <v>0.168736</v>
       </c>
-      <c r="E236" s="27" t="s">
+      <c r="E240" t="s">
         <v>148</v>
       </c>
-      <c r="F236" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G236" s="27" t="s">
+      <c r="F240" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G240" t="s">
         <v>68</v>
       </c>
-      <c r="H236" s="27"/>
-      <c r="I236" s="27"/>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A237" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="B237" s="27" t="s">
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>194</v>
+      </c>
+      <c r="B241" t="s">
         <v>147</v>
       </c>
-      <c r="C237" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D237" s="27">
+      <c r="C241" t="s">
+        <v>54</v>
+      </c>
+      <c r="D241">
         <v>0.253104</v>
       </c>
-      <c r="E237" s="27" t="s">
+      <c r="E241" t="s">
         <v>148</v>
       </c>
-      <c r="F237" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G237" s="27" t="s">
+      <c r="F241" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G241" t="s">
         <v>68</v>
       </c>
-      <c r="H237" s="27"/>
-      <c r="I237" s="27"/>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B243" t="s">
         <v>28</v>
       </c>
-      <c r="C239" s="2"/>
-      <c r="D239" s="2"/>
-      <c r="E239" s="2"/>
-      <c r="F239" s="2"/>
-      <c r="G239" s="2"/>
-      <c r="H239" s="2"/>
-      <c r="I239" s="2"/>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A240" s="3" t="s">
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+      <c r="G243" s="2"/>
+      <c r="H243" s="2"/>
+      <c r="I243" s="2"/>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B244" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A241" s="4" t="s">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B241" s="5" t="s">
+      <c r="B245" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C241" s="5"/>
-      <c r="D241" s="5"/>
-      <c r="E241" s="5"/>
-      <c r="F241" s="5"/>
-      <c r="G241" s="5"/>
-      <c r="H241" s="5"/>
-      <c r="I241" s="5"/>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A242" s="4" t="s">
+      <c r="C245" s="5"/>
+      <c r="D245" s="5"/>
+      <c r="E245" s="5"/>
+      <c r="F245" s="5"/>
+      <c r="G245" s="5"/>
+      <c r="H245" s="5"/>
+      <c r="I245" s="5"/>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B242" s="6">
+      <c r="B246" s="6">
         <v>1</v>
       </c>
-      <c r="C242" s="5"/>
-      <c r="D242" s="5"/>
-      <c r="E242" s="5"/>
-      <c r="F242" s="5"/>
-      <c r="G242" s="5"/>
-      <c r="H242" s="5"/>
-      <c r="I242" s="5"/>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A243" s="4" t="s">
+      <c r="C246" s="5"/>
+      <c r="D246" s="5"/>
+      <c r="E246" s="5"/>
+      <c r="F246" s="5"/>
+      <c r="G246" s="5"/>
+      <c r="H246" s="5"/>
+      <c r="I246" s="5"/>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B243" s="7" t="s">
+      <c r="B247" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C243" s="5"/>
-      <c r="D243" s="5"/>
-      <c r="E243" s="5"/>
-      <c r="F243" s="5"/>
-      <c r="G243" s="5"/>
-      <c r="H243" s="5"/>
-      <c r="I243" s="5"/>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A245" s="3" t="s">
+      <c r="C247" s="5"/>
+      <c r="D247" s="5"/>
+      <c r="E247" s="5"/>
+      <c r="F247" s="5"/>
+      <c r="G247" s="5"/>
+      <c r="H247" s="5"/>
+      <c r="I247" s="5"/>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A246" s="3" t="s">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B250" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="C250" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D246" s="8" t="s">
+      <c r="D250" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E246" s="3" t="s">
+      <c r="E250" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F246" s="3" t="s">
+      <c r="F250" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G246" s="3" t="s">
+      <c r="G250" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H246" s="3" t="s">
+      <c r="H250" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I246" t="s">
+      <c r="I250" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A247" t="str">
-        <f>B239</f>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251" t="str">
+        <f>B243</f>
         <v>Composter_saint thomas</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B251" t="s">
         <v>16</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C251" t="s">
         <v>8</v>
       </c>
-      <c r="D247" s="9">
+      <c r="D251" s="9">
         <v>1</v>
       </c>
-      <c r="E247" t="s">
+      <c r="E251" t="s">
         <v>5</v>
       </c>
-      <c r="F247" t="str">
+      <c r="F251" t="str">
         <f>$B$1</f>
         <v>OWM Facilities</v>
       </c>
-      <c r="G247" t="s">
+      <c r="G251" t="s">
         <v>17</v>
       </c>
-      <c r="H247" s="3"/>
-      <c r="I247" t="s">
+      <c r="H251" s="3"/>
+      <c r="I251" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A248" s="9" t="s">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B252" t="s">
         <v>35</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C252" t="s">
         <v>36</v>
       </c>
-      <c r="D248">
+      <c r="D252">
         <v>1.6772116902968379</v>
       </c>
-      <c r="E248" t="s">
+      <c r="E252" t="s">
         <v>5</v>
       </c>
-      <c r="F248" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G248" t="s">
+      <c r="F252" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G252" t="s">
         <v>19</v>
       </c>
-      <c r="I248" t="s">
+      <c r="I252" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A249" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="B249" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="C249" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D249" s="33">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>196</v>
+      </c>
+      <c r="B253" t="s">
+        <v>197</v>
+      </c>
+      <c r="C253" t="s">
+        <v>54</v>
+      </c>
+      <c r="D253" s="13">
         <v>2.5320055641349066</v>
       </c>
-      <c r="E249" s="27" t="s">
+      <c r="E253" t="s">
         <v>50</v>
       </c>
-      <c r="F249" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G249" t="s">
+      <c r="F253" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G253" t="s">
         <v>19</v>
       </c>
-      <c r="I249" t="s">
+      <c r="I253" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
         <v>45</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B254" t="s">
         <v>46</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C254" t="s">
         <v>44</v>
       </c>
-      <c r="D250" s="10">
+      <c r="D254" s="10">
         <f>Transportation!B14</f>
         <v>59.6</v>
       </c>
-      <c r="E250" t="s">
+      <c r="E254" t="s">
         <v>47</v>
       </c>
-      <c r="F250" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G250" t="s">
+      <c r="F254" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G254" t="s">
         <v>19</v>
       </c>
-      <c r="I250" t="s">
+      <c r="I254" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>195</v>
-      </c>
-      <c r="B251" t="s">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>191</v>
+      </c>
+      <c r="B255" t="s">
         <v>56</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C255" t="s">
         <v>57</v>
       </c>
-      <c r="D251">
+      <c r="D255">
         <v>7.28915519494213</v>
       </c>
-      <c r="E251" t="s">
+      <c r="E255" t="s">
         <v>5</v>
       </c>
-      <c r="F251" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G251" t="s">
+      <c r="F255" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G255" t="s">
         <v>19</v>
       </c>
-      <c r="I251" t="s">
+      <c r="I255" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
         <v>63</v>
       </c>
-      <c r="C252" t="s">
-        <v>54</v>
-      </c>
-      <c r="D252">
+      <c r="C256" t="s">
+        <v>54</v>
+      </c>
+      <c r="D256">
         <v>5.6135340059469772E-4</v>
       </c>
-      <c r="F252" s="22" t="s">
+      <c r="F256" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G256" t="s">
+        <v>60</v>
+      </c>
+      <c r="H256" t="s">
+        <v>61</v>
+      </c>
+      <c r="I256" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>65</v>
+      </c>
+      <c r="C257" t="s">
+        <v>54</v>
+      </c>
+      <c r="D257">
+        <v>1.3472481614272745E-5</v>
+      </c>
+      <c r="F257" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G257" t="s">
+        <v>60</v>
+      </c>
+      <c r="H257" t="s">
+        <v>61</v>
+      </c>
+      <c r="I257" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>67</v>
+      </c>
+      <c r="C258" t="s">
+        <v>54</v>
+      </c>
+      <c r="D258" s="10">
+        <v>2.6570727628149027E-3</v>
+      </c>
+      <c r="F258" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G258" t="s">
+        <v>60</v>
+      </c>
+      <c r="H258" t="s">
+        <v>61</v>
+      </c>
+      <c r="I258" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
         <v>193</v>
       </c>
-      <c r="G252" t="s">
+      <c r="C259" t="s">
+        <v>54</v>
+      </c>
+      <c r="D259" s="11">
+        <v>1.0852832411497491E-3</v>
+      </c>
+      <c r="F259" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G259" t="s">
         <v>60</v>
       </c>
-      <c r="H252" t="s">
+      <c r="H259" t="s">
         <v>61</v>
       </c>
-      <c r="I252" t="s">
+      <c r="I259" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>65</v>
-      </c>
-      <c r="C253" t="s">
-        <v>54</v>
-      </c>
-      <c r="D253">
-        <v>1.3472481614272745E-5</v>
-      </c>
-      <c r="F253" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="G253" t="s">
-        <v>60</v>
-      </c>
-      <c r="H253" t="s">
-        <v>61</v>
-      </c>
-      <c r="I253" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>67</v>
-      </c>
-      <c r="C254" t="s">
-        <v>54</v>
-      </c>
-      <c r="D254" s="10">
-        <v>2.6570727628149027E-3</v>
-      </c>
-      <c r="F254" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="G254" t="s">
-        <v>60</v>
-      </c>
-      <c r="H254" t="s">
-        <v>61</v>
-      </c>
-      <c r="I254" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A255" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="B255" s="27"/>
-      <c r="C255" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D255" s="32">
-        <v>1.0852832411497491E-3</v>
-      </c>
-      <c r="E255" s="27"/>
-      <c r="F255" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="G255" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="H255" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="I255" s="27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A256" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="B256" s="27" t="s">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>179</v>
+      </c>
+      <c r="B260" t="s">
         <v>145</v>
       </c>
-      <c r="C256" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D256" s="27">
+      <c r="C260" t="s">
+        <v>54</v>
+      </c>
+      <c r="D260">
         <v>0.29528799999999999</v>
       </c>
-      <c r="E256" s="27" t="s">
+      <c r="E260" t="s">
         <v>148</v>
       </c>
-      <c r="F256" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G256" s="27" t="s">
+      <c r="F260" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G260" t="s">
         <v>68</v>
       </c>
-      <c r="H256" s="27"/>
-      <c r="I256" s="27"/>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A257" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B257" s="27" t="s">
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>180</v>
+      </c>
+      <c r="B261" t="s">
         <v>146</v>
       </c>
-      <c r="C257" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D257" s="27">
+      <c r="C261" t="s">
+        <v>54</v>
+      </c>
+      <c r="D261">
         <v>0.168736</v>
       </c>
-      <c r="E257" s="27" t="s">
+      <c r="E261" t="s">
         <v>148</v>
       </c>
-      <c r="F257" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G257" s="27" t="s">
+      <c r="F261" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G261" t="s">
         <v>68</v>
       </c>
-      <c r="H257" s="27"/>
-      <c r="I257" s="27"/>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A258" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="B258" s="27" t="s">
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>194</v>
+      </c>
+      <c r="B262" t="s">
         <v>147</v>
       </c>
-      <c r="C258" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D258" s="27">
+      <c r="C262" t="s">
+        <v>54</v>
+      </c>
+      <c r="D262">
         <v>0.253104</v>
       </c>
-      <c r="E258" s="27" t="s">
+      <c r="E262" t="s">
         <v>148</v>
       </c>
-      <c r="F258" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G258" s="27" t="s">
+      <c r="F262" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G262" t="s">
         <v>68</v>
       </c>
-      <c r="H258" s="27"/>
-      <c r="I258" s="27"/>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D259" s="10"/>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D260" s="10"/>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D261" s="11"/>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D263" s="10"/>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
+      <c r="D264" s="10"/>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D265" s="11"/>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B268" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C264" s="2"/>
-      <c r="D264" s="2"/>
-      <c r="E264" s="2"/>
-      <c r="F264" s="2"/>
-      <c r="G264" s="2"/>
-      <c r="H264" s="2"/>
-      <c r="I264" s="2"/>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A265" s="3" t="s">
+      <c r="C268" s="2"/>
+      <c r="D268" s="2"/>
+      <c r="E268" s="2"/>
+      <c r="F268" s="2"/>
+      <c r="G268" s="2"/>
+      <c r="H268" s="2"/>
+      <c r="I268" s="2"/>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B269" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A266" s="4" t="s">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B266" s="5" t="s">
+      <c r="B270" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C266" s="5"/>
-      <c r="D266" s="5"/>
-      <c r="E266" s="5"/>
-      <c r="F266" s="5"/>
-      <c r="G266" s="5"/>
-      <c r="H266" s="5"/>
-      <c r="I266" s="5"/>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A267" s="4" t="s">
+      <c r="C270" s="5"/>
+      <c r="D270" s="5"/>
+      <c r="E270" s="5"/>
+      <c r="F270" s="5"/>
+      <c r="G270" s="5"/>
+      <c r="H270" s="5"/>
+      <c r="I270" s="5"/>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B267" s="6">
+      <c r="B271" s="6">
         <v>1</v>
       </c>
-      <c r="C267" s="5"/>
-      <c r="D267" s="5"/>
-      <c r="E267" s="5"/>
-      <c r="F267" s="5"/>
-      <c r="G267" s="5"/>
-      <c r="H267" s="5"/>
-      <c r="I267" s="5"/>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A268" s="4" t="s">
+      <c r="C271" s="5"/>
+      <c r="D271" s="5"/>
+      <c r="E271" s="5"/>
+      <c r="F271" s="5"/>
+      <c r="G271" s="5"/>
+      <c r="H271" s="5"/>
+      <c r="I271" s="5"/>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B268" s="7" t="s">
+      <c r="B272" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C268" s="5"/>
-      <c r="D268" s="5"/>
-      <c r="E268" s="5"/>
-      <c r="F268" s="5"/>
-      <c r="G268" s="5"/>
-      <c r="H268" s="5"/>
-      <c r="I268" s="5"/>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A270" s="3" t="s">
+      <c r="C272" s="5"/>
+      <c r="D272" s="5"/>
+      <c r="E272" s="5"/>
+      <c r="F272" s="5"/>
+      <c r="G272" s="5"/>
+      <c r="H272" s="5"/>
+      <c r="I272" s="5"/>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A271" s="3" t="s">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B275" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C271" s="3" t="s">
+      <c r="C275" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D271" s="8" t="s">
+      <c r="D275" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E271" s="3" t="s">
+      <c r="E275" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F271" s="3" t="s">
+      <c r="F275" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G271" s="3" t="s">
+      <c r="G275" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H271" s="3" t="s">
+      <c r="H275" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I271" t="s">
+      <c r="I275" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A272" s="35" t="str">
-        <f>B264</f>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276" t="str">
+        <f>B268</f>
         <v>lewerenz_Open Composter</v>
       </c>
-      <c r="B272" s="35" t="s">
+      <c r="B276" t="s">
         <v>16</v>
       </c>
-      <c r="C272" s="35" t="s">
+      <c r="C276" t="s">
         <v>8</v>
       </c>
-      <c r="D272" s="36">
+      <c r="D276" s="9">
         <v>1</v>
       </c>
-      <c r="E272" s="35" t="str">
-        <f>B266</f>
+      <c r="E276" t="str">
+        <f>B270</f>
         <v>CA-QC</v>
       </c>
-      <c r="F272" s="35" t="str">
+      <c r="F276" t="str">
         <f>$B$1</f>
         <v>OWM Facilities</v>
       </c>
-      <c r="G272" t="s">
+      <c r="G276" t="s">
         <v>17</v>
       </c>
-      <c r="H272" s="3"/>
-      <c r="I272" t="s">
+      <c r="H276" s="3"/>
+      <c r="I276" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A273" s="36" t="s">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B273" s="35" t="s">
+      <c r="B277" t="s">
         <v>35</v>
       </c>
-      <c r="C273" s="35" t="s">
+      <c r="C277" t="s">
         <v>36</v>
       </c>
-      <c r="D273" s="37">
+      <c r="D277" s="10">
         <f>0.0045*1000</f>
         <v>4.5</v>
       </c>
-      <c r="E273" s="35" t="s">
+      <c r="E277" t="s">
         <v>32</v>
       </c>
-      <c r="F273" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="G273" t="s">
+      <c r="F277" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G277" t="s">
         <v>19</v>
       </c>
-      <c r="I273" t="s">
+      <c r="I277" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A274" s="35" t="s">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
         <v>38</v>
       </c>
-      <c r="B274" s="35" t="s">
+      <c r="B278" t="s">
         <v>39</v>
       </c>
-      <c r="C274" s="35" t="s">
+      <c r="C278" t="s">
         <v>40</v>
       </c>
-      <c r="D274" s="37">
+      <c r="D278" s="10">
         <f>0.000213066494623584*1000</f>
         <v>0.21306649462358399</v>
       </c>
-      <c r="E274" s="35" t="s">
+      <c r="E278" t="s">
         <v>41</v>
       </c>
-      <c r="F274" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="G274" t="s">
+      <c r="F278" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G278" t="s">
         <v>19</v>
       </c>
-      <c r="I274" t="s">
+      <c r="I278" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A275" s="35" t="s">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
         <v>42</v>
       </c>
-      <c r="B275" s="35" t="s">
+      <c r="B279" t="s">
         <v>43</v>
       </c>
-      <c r="C275" s="35" t="s">
+      <c r="C279" t="s">
         <v>44</v>
       </c>
-      <c r="D275" s="37">
+      <c r="D279" s="10">
         <f>0.015*1000</f>
         <v>15</v>
       </c>
-      <c r="E275" s="35" t="s">
+      <c r="E279" t="s">
         <v>41</v>
       </c>
-      <c r="F275" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="G275" t="s">
+      <c r="F279" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G279" t="s">
         <v>19</v>
       </c>
-      <c r="I275" t="s">
+      <c r="I279" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A276" s="35" t="s">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
         <v>45</v>
       </c>
-      <c r="B276" s="35" t="s">
+      <c r="B280" t="s">
         <v>46</v>
       </c>
-      <c r="C276" s="35" t="s">
+      <c r="C280" t="s">
         <v>44</v>
       </c>
-      <c r="D276" s="37">
+      <c r="D280" s="10">
         <f>0.017*1000</f>
         <v>17</v>
       </c>
-      <c r="E276" s="35" t="s">
+      <c r="E280" t="s">
         <v>47</v>
       </c>
-      <c r="F276" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="G276" t="s">
+      <c r="F280" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G280" t="s">
         <v>19</v>
       </c>
-      <c r="I276" t="s">
+      <c r="I280" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A277" s="35" t="s">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
         <v>48</v>
       </c>
-      <c r="B277" s="35" t="s">
+      <c r="B281" t="s">
         <v>49</v>
       </c>
-      <c r="C277" s="35" t="s">
+      <c r="C281" t="s">
         <v>7</v>
       </c>
-      <c r="D277" s="37">
+      <c r="D281" s="10">
         <f>0.0000000040014*1000</f>
         <v>4.0013999999999995E-6</v>
       </c>
-      <c r="E277" s="35" t="s">
+      <c r="E281" t="s">
         <v>50</v>
       </c>
-      <c r="F277" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="G277" t="s">
+      <c r="F281" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G281" t="s">
         <v>19</v>
       </c>
-      <c r="I277" t="s">
+      <c r="I281" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A278" s="35" t="s">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
         <v>52</v>
       </c>
-      <c r="B278" s="35" t="s">
+      <c r="B282" t="s">
         <v>53</v>
       </c>
-      <c r="C278" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D278" s="37">
+      <c r="C282" t="s">
+        <v>54</v>
+      </c>
+      <c r="D282" s="10">
         <f>0.0000185*1000</f>
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="E278" s="35" t="s">
+      <c r="E282" t="s">
         <v>32</v>
       </c>
-      <c r="F278" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="G278" t="s">
+      <c r="F282" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G282" t="s">
         <v>19</v>
       </c>
-      <c r="I278" t="s">
+      <c r="I282" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A279" s="35" t="s">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
         <v>55</v>
       </c>
-      <c r="B279" s="35" t="s">
+      <c r="B283" t="s">
         <v>56</v>
       </c>
-      <c r="C279" s="35" t="s">
+      <c r="C283" t="s">
         <v>57</v>
       </c>
-      <c r="D279" s="37">
+      <c r="D283" s="10">
         <f>0.000225*1000</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="E279" s="35" t="s">
+      <c r="E283" t="s">
         <v>58</v>
       </c>
-      <c r="F279" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="G279" t="s">
+      <c r="F283" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G283" t="s">
         <v>19</v>
       </c>
-      <c r="I279" t="s">
+      <c r="I283" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
         <v>59</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C284" t="s">
         <v>57</v>
       </c>
-      <c r="D280" s="10">
+      <c r="D284" s="10">
         <f>0.000125*1000</f>
         <v>0.125</v>
       </c>
-      <c r="F280" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="G280" t="s">
+      <c r="F284" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G284" t="s">
         <v>60</v>
       </c>
-      <c r="H280" t="s">
+      <c r="H284" t="s">
         <v>59</v>
       </c>
-      <c r="I280" t="s">
+      <c r="I284" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
         <v>63</v>
       </c>
-      <c r="C281" t="s">
-        <v>54</v>
-      </c>
-      <c r="D281" s="11">
+      <c r="C285" t="s">
+        <v>54</v>
+      </c>
+      <c r="D285" s="11">
         <f>1000*0.0007116</f>
         <v>0.7115999999999999</v>
       </c>
-      <c r="F281" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="G281" t="s">
+      <c r="F285" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G285" t="s">
         <v>60</v>
       </c>
-      <c r="H281" t="s">
+      <c r="H285" t="s">
         <v>61</v>
       </c>
-      <c r="I281" t="s">
+      <c r="I285" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
         <v>64</v>
       </c>
-      <c r="C282" t="s">
-        <v>54</v>
-      </c>
-      <c r="D282" s="10">
+      <c r="C286" t="s">
+        <v>54</v>
+      </c>
+      <c r="D286" s="10">
         <f>1000*0.09793</f>
         <v>97.93</v>
       </c>
-      <c r="F282" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="G282" t="s">
+      <c r="F286" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G286" t="s">
         <v>60</v>
       </c>
-      <c r="H282" t="s">
+      <c r="H286" t="s">
         <v>61</v>
       </c>
-      <c r="I282" t="s">
+      <c r="I286" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
         <v>65</v>
       </c>
-      <c r="C283" t="s">
-        <v>54</v>
-      </c>
-      <c r="D283" s="10">
+      <c r="C287" t="s">
+        <v>54</v>
+      </c>
+      <c r="D287" s="10">
         <f>1000*0.00015225</f>
         <v>0.15225</v>
       </c>
-      <c r="F283" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="G283" t="s">
+      <c r="F287" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G287" t="s">
         <v>60</v>
       </c>
-      <c r="H283" t="s">
+      <c r="H287" t="s">
         <v>61</v>
       </c>
-      <c r="I283" t="s">
+      <c r="I287" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A289" s="27"/>
-      <c r="B289" s="27"/>
-      <c r="C289" s="40"/>
-      <c r="D289" s="39"/>
-      <c r="E289" s="27"/>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D293" s="10"/>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B292" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C292" s="2"/>
-      <c r="D292" s="2"/>
-      <c r="E292" s="2"/>
-      <c r="F292" s="2"/>
-      <c r="G292" s="2"/>
-      <c r="H292" s="2"/>
-      <c r="I292" s="2"/>
-    </row>
-    <row r="293" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A293" s="3" t="s">
+      <c r="B296" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C296" s="2"/>
+      <c r="D296" s="2"/>
+      <c r="E296" s="2"/>
+      <c r="F296" s="2"/>
+      <c r="G296" s="2"/>
+      <c r="H296" s="2"/>
+      <c r="I296" s="2"/>
+    </row>
+    <row r="297" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A297" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B293" s="24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A294" s="4" t="s">
+      <c r="B297" s="22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A298" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B294" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C294" s="5"/>
-      <c r="D294" s="5"/>
-      <c r="E294" s="5"/>
-      <c r="F294" s="5"/>
-      <c r="G294" s="5"/>
-      <c r="H294" s="5"/>
-      <c r="I294" s="5"/>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A295" s="4" t="s">
+      <c r="B298" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C298" s="5"/>
+      <c r="D298" s="5"/>
+      <c r="E298" s="5"/>
+      <c r="F298" s="5"/>
+      <c r="G298" s="5"/>
+      <c r="H298" s="5"/>
+      <c r="I298" s="5"/>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A299" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B295" s="6">
+      <c r="B299" s="6">
         <v>1</v>
       </c>
-      <c r="C295" s="5"/>
-      <c r="D295" s="5"/>
-      <c r="E295" s="5"/>
-      <c r="F295" s="5"/>
-      <c r="G295" s="5"/>
-      <c r="H295" s="5"/>
-      <c r="I295" s="5"/>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A296" s="4" t="s">
+      <c r="C299" s="5"/>
+      <c r="D299" s="5"/>
+      <c r="E299" s="5"/>
+      <c r="F299" s="5"/>
+      <c r="G299" s="5"/>
+      <c r="H299" s="5"/>
+      <c r="I299" s="5"/>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A300" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B296" s="7" t="s">
+      <c r="B300" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C296" s="5"/>
-      <c r="D296" s="5"/>
-      <c r="E296" s="5"/>
-      <c r="F296" s="5"/>
-      <c r="G296" s="5"/>
-      <c r="H296" s="5"/>
-      <c r="I296" s="5"/>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A298" s="3" t="s">
+      <c r="C300" s="5"/>
+      <c r="D300" s="5"/>
+      <c r="E300" s="5"/>
+      <c r="F300" s="5"/>
+      <c r="G300" s="5"/>
+      <c r="H300" s="5"/>
+      <c r="I300" s="5"/>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A302" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A299" s="3" t="s">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A303" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B299" s="3" t="s">
+      <c r="B303" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C299" s="3" t="s">
+      <c r="C303" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D299" s="8" t="s">
+      <c r="D303" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E299" s="3" t="s">
+      <c r="E303" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F299" s="3" t="s">
+      <c r="F303" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G299" s="3" t="s">
+      <c r="G303" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H299" s="3" t="s">
+      <c r="H303" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I299" t="s">
+      <c r="I303" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A300" t="str">
-        <f>B292</f>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A304" t="str">
+        <f>B296</f>
         <v>NS_compost</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B304" t="s">
         <v>16</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C304" t="s">
         <v>8</v>
       </c>
-      <c r="D300">
+      <c r="D304">
         <v>1</v>
       </c>
-      <c r="E300" t="str">
-        <f>B294</f>
+      <c r="E304" t="str">
+        <f>B298</f>
         <v>CA-NS</v>
       </c>
-      <c r="F300" t="str">
+      <c r="F304" t="str">
         <f>B1</f>
         <v>OWM Facilities</v>
       </c>
-      <c r="G300" t="s">
+      <c r="G304" t="s">
         <v>17</v>
-      </c>
-      <c r="I300" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>34</v>
-      </c>
-      <c r="B301" t="s">
-        <v>35</v>
-      </c>
-      <c r="C301" t="s">
-        <v>36</v>
-      </c>
-      <c r="D301">
-        <v>27.42983199561294</v>
-      </c>
-      <c r="E301" t="str">
-        <f>E300</f>
-        <v>CA-NS</v>
-      </c>
-      <c r="F301" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G301" t="s">
-        <v>19</v>
-      </c>
-      <c r="I301" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A302" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="B302" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="C302" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D302">
-        <v>3.34</v>
-      </c>
-      <c r="E302" t="s">
-        <v>50</v>
-      </c>
-      <c r="F302" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G302" t="s">
-        <v>19</v>
-      </c>
-      <c r="I302" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>65</v>
-      </c>
-      <c r="C303" t="s">
-        <v>54</v>
-      </c>
-      <c r="D303">
-        <v>8.9947155890124133</v>
-      </c>
-      <c r="F303" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="G303" t="s">
-        <v>60</v>
-      </c>
-      <c r="H303" t="s">
-        <v>61</v>
-      </c>
-      <c r="I303" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>67</v>
-      </c>
-      <c r="C304" t="s">
-        <v>54</v>
-      </c>
-      <c r="D304">
-        <v>5.6084551000000003E-2</v>
-      </c>
-      <c r="F304" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="G304" t="s">
-        <v>60</v>
-      </c>
-      <c r="H304" t="s">
-        <v>61</v>
       </c>
       <c r="I304" t="s">
         <v>33</v>
@@ -6155,343 +6349,346 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>64</v>
+        <v>34</v>
+      </c>
+      <c r="B305" t="s">
+        <v>35</v>
       </c>
       <c r="C305" t="s">
-        <v>54</v>
-      </c>
-      <c r="D305" s="10">
-        <v>34.182910409999998</v>
-      </c>
-      <c r="F305" s="22" t="s">
-        <v>193</v>
+        <v>36</v>
+      </c>
+      <c r="D305">
+        <v>27.42983199561294</v>
+      </c>
+      <c r="E305" t="str">
+        <f>E304</f>
+        <v>CA-NS</v>
+      </c>
+      <c r="F305" s="20" t="s">
+        <v>188</v>
       </c>
       <c r="G305" t="s">
-        <v>60</v>
-      </c>
-      <c r="H305" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="I305" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>182</v>
-      </c>
-      <c r="B306" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="C306" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D306" s="27">
-        <v>1.7807999999999999</v>
-      </c>
-      <c r="E306" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="F306" s="22" t="s">
-        <v>192</v>
+        <v>196</v>
+      </c>
+      <c r="B306" t="s">
+        <v>197</v>
+      </c>
+      <c r="C306" t="s">
+        <v>54</v>
+      </c>
+      <c r="D306">
+        <v>3.34</v>
+      </c>
+      <c r="E306" t="s">
+        <v>50</v>
+      </c>
+      <c r="F306" s="20" t="s">
+        <v>188</v>
       </c>
       <c r="G306" t="s">
-        <v>68</v>
+        <v>19</v>
+      </c>
+      <c r="I306" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>183</v>
-      </c>
-      <c r="B307" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="C307" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D307" s="27">
-        <v>1.0176000000000001</v>
-      </c>
-      <c r="E307" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="F307" s="22" t="s">
-        <v>192</v>
+        <v>65</v>
+      </c>
+      <c r="C307" t="s">
+        <v>54</v>
+      </c>
+      <c r="D307">
+        <v>8.9947155890124133</v>
+      </c>
+      <c r="F307" s="20" t="s">
+        <v>189</v>
       </c>
       <c r="G307" t="s">
-        <v>68</v>
+        <v>60</v>
+      </c>
+      <c r="H307" t="s">
+        <v>61</v>
+      </c>
+      <c r="I307" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>198</v>
-      </c>
-      <c r="B308" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C308" t="s">
+        <v>54</v>
+      </c>
+      <c r="D308">
+        <v>5.6084551000000003E-2</v>
+      </c>
+      <c r="F308" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G308" t="s">
+        <v>60</v>
+      </c>
+      <c r="H308" t="s">
+        <v>61</v>
+      </c>
+      <c r="I308" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>52</v>
+      </c>
+      <c r="B309" t="s">
+        <v>53</v>
+      </c>
+      <c r="C309" t="s">
+        <v>54</v>
+      </c>
+      <c r="D309">
+        <v>9.1355501271249806E-2</v>
+      </c>
+      <c r="E309" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F309" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G309" t="s">
+        <v>19</v>
+      </c>
+      <c r="I309" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>64</v>
+      </c>
+      <c r="C310" t="s">
+        <v>54</v>
+      </c>
+      <c r="D310" s="10">
+        <v>34.182910409999998</v>
+      </c>
+      <c r="F310" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G310" t="s">
+        <v>60</v>
+      </c>
+      <c r="H310" t="s">
+        <v>61</v>
+      </c>
+      <c r="I310" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>179</v>
+      </c>
+      <c r="B311" t="s">
+        <v>145</v>
+      </c>
+      <c r="C311" t="s">
+        <v>54</v>
+      </c>
+      <c r="D311">
+        <v>1.7807999999999999</v>
+      </c>
+      <c r="E311" t="s">
+        <v>148</v>
+      </c>
+      <c r="F311" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G311" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>180</v>
+      </c>
+      <c r="B312" t="s">
+        <v>146</v>
+      </c>
+      <c r="C312" t="s">
+        <v>54</v>
+      </c>
+      <c r="D312">
+        <v>1.0176000000000001</v>
+      </c>
+      <c r="E312" t="s">
+        <v>148</v>
+      </c>
+      <c r="F312" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G312" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>194</v>
+      </c>
+      <c r="B313" t="s">
         <v>147</v>
       </c>
-      <c r="C308" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D308" s="27">
+      <c r="C313" t="s">
+        <v>54</v>
+      </c>
+      <c r="D313">
         <v>1.5264</v>
       </c>
-      <c r="E308" s="27" t="s">
+      <c r="E313" t="s">
         <v>148</v>
       </c>
-      <c r="F308" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G308" t="s">
+      <c r="F313" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G313" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B310" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C310" s="2"/>
-      <c r="D310" s="2"/>
-      <c r="E310" s="2"/>
-      <c r="F310" s="2"/>
-      <c r="G310" s="2"/>
-      <c r="H310" s="2"/>
-      <c r="I310" s="2"/>
-    </row>
-    <row r="311" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A311" s="3" t="s">
+      <c r="B315" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C315" s="2"/>
+      <c r="D315" s="2"/>
+      <c r="E315" s="2"/>
+      <c r="F315" s="2"/>
+      <c r="G315" s="2"/>
+      <c r="H315" s="2"/>
+      <c r="I315" s="2"/>
+    </row>
+    <row r="316" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A316" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B311" s="26" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="4" t="s">
+      <c r="B316" s="24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B312" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C312" s="5"/>
-      <c r="D312" s="5"/>
-      <c r="E312" s="5"/>
-      <c r="F312" s="5"/>
-      <c r="G312" s="5"/>
-      <c r="H312" s="5"/>
-      <c r="I312" s="5"/>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A313" s="4" t="s">
+      <c r="B317" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C317" s="5"/>
+      <c r="D317" s="5"/>
+      <c r="E317" s="5"/>
+      <c r="F317" s="5"/>
+      <c r="G317" s="5"/>
+      <c r="H317" s="5"/>
+      <c r="I317" s="5"/>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A318" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B313" s="6">
+      <c r="B318" s="6">
         <v>1</v>
       </c>
-      <c r="C313" s="5"/>
-      <c r="D313" s="5"/>
-      <c r="E313" s="5"/>
-      <c r="F313" s="5"/>
-      <c r="G313" s="5"/>
-      <c r="H313" s="5"/>
-      <c r="I313" s="5"/>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A314" s="4" t="s">
+      <c r="C318" s="5"/>
+      <c r="D318" s="5"/>
+      <c r="E318" s="5"/>
+      <c r="F318" s="5"/>
+      <c r="G318" s="5"/>
+      <c r="H318" s="5"/>
+      <c r="I318" s="5"/>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A319" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B314" s="7" t="s">
+      <c r="B319" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C314" s="5"/>
-      <c r="D314" s="5"/>
-      <c r="E314" s="5"/>
-      <c r="F314" s="5"/>
-      <c r="G314" s="5"/>
-      <c r="H314" s="5"/>
-      <c r="I314" s="5"/>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A316" s="3" t="s">
+      <c r="C319" s="5"/>
+      <c r="D319" s="5"/>
+      <c r="E319" s="5"/>
+      <c r="F319" s="5"/>
+      <c r="G319" s="5"/>
+      <c r="H319" s="5"/>
+      <c r="I319" s="5"/>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A321" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A317" s="3" t="s">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A322" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B317" s="3" t="s">
+      <c r="B322" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C317" s="3" t="s">
+      <c r="C322" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D317" s="8" t="s">
+      <c r="D322" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E317" s="3" t="s">
+      <c r="E322" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F317" s="3" t="s">
+      <c r="F322" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G317" s="3" t="s">
+      <c r="G322" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H317" s="3" t="s">
+      <c r="H322" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I317" t="s">
+      <c r="I322" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A318" t="str">
-        <f>B310</f>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A323" t="str">
+        <f>B315</f>
         <v>NS_AD</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B323" t="s">
         <v>16</v>
       </c>
-      <c r="C318" t="s">
+      <c r="C323" t="s">
         <v>8</v>
       </c>
-      <c r="D318">
+      <c r="D323">
         <v>1</v>
       </c>
-      <c r="E318" t="str">
-        <f>B312</f>
+      <c r="E323" t="str">
+        <f>B317</f>
         <v>CA-NS</v>
       </c>
-      <c r="F318" t="s">
+      <c r="F323" t="s">
         <v>1</v>
       </c>
-      <c r="G318" t="s">
+      <c r="G323" t="s">
         <v>17</v>
-      </c>
-      <c r="I318" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>34</v>
-      </c>
-      <c r="B319" t="s">
-        <v>35</v>
-      </c>
-      <c r="C319" t="s">
-        <v>36</v>
-      </c>
-      <c r="D319" s="10">
-        <v>19.624800000000015</v>
-      </c>
-      <c r="E319" t="str">
-        <f>[2]Sheet1!E11</f>
-        <v>CA-QC</v>
-      </c>
-      <c r="F319" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G319" t="s">
-        <v>19</v>
-      </c>
-      <c r="I319" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A320" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B320" t="s">
-        <v>35</v>
-      </c>
-      <c r="C320" t="s">
-        <v>36</v>
-      </c>
-      <c r="D320">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E320" t="s">
-        <v>5</v>
-      </c>
-      <c r="F320" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G320" t="s">
-        <v>68</v>
-      </c>
-      <c r="I320" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>64</v>
-      </c>
-      <c r="C321" t="s">
-        <v>54</v>
-      </c>
-      <c r="D321" s="25">
-        <v>3.9980000000000002</v>
-      </c>
-      <c r="F321" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="G321" t="s">
-        <v>60</v>
-      </c>
-      <c r="H321" t="s">
-        <v>61</v>
-      </c>
-      <c r="I321" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>65</v>
-      </c>
-      <c r="C322" t="s">
-        <v>54</v>
-      </c>
-      <c r="D322" s="11">
-        <v>2.75E-2</v>
-      </c>
-      <c r="F322" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="G322" t="s">
-        <v>60</v>
-      </c>
-      <c r="H322" t="s">
-        <v>61</v>
-      </c>
-      <c r="I322" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>67</v>
-      </c>
-      <c r="C323" t="s">
-        <v>54</v>
-      </c>
-      <c r="D323" s="11">
-        <v>13.210197464999998</v>
-      </c>
-      <c r="F323" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="G323" t="s">
-        <v>60</v>
-      </c>
-      <c r="H323" t="s">
-        <v>61</v>
       </c>
       <c r="I323" t="s">
         <v>33</v>
@@ -6499,37 +6696,414 @@
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
+        <v>34</v>
+      </c>
+      <c r="B324" t="s">
+        <v>35</v>
+      </c>
+      <c r="C324" t="s">
+        <v>36</v>
+      </c>
+      <c r="D324" s="10">
+        <v>19.624800000000015</v>
+      </c>
+      <c r="E324" t="str">
+        <f>[1]Sheet1!E11</f>
+        <v>CA-QC</v>
+      </c>
+      <c r="F324" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G324" t="s">
+        <v>19</v>
+      </c>
+      <c r="I324" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A325" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B325" t="s">
+        <v>35</v>
+      </c>
+      <c r="C325" t="s">
+        <v>36</v>
+      </c>
+      <c r="D325">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E325" t="s">
+        <v>5</v>
+      </c>
+      <c r="F325" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G325" t="s">
+        <v>68</v>
+      </c>
+      <c r="I325" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>64</v>
+      </c>
+      <c r="C326" t="s">
+        <v>54</v>
+      </c>
+      <c r="D326" s="23">
+        <v>3.9980000000000002</v>
+      </c>
+      <c r="F326" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G326" t="s">
+        <v>60</v>
+      </c>
+      <c r="H326" t="s">
+        <v>61</v>
+      </c>
+      <c r="I326" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>65</v>
+      </c>
+      <c r="C327" t="s">
+        <v>54</v>
+      </c>
+      <c r="D327" s="11">
+        <v>2.75E-2</v>
+      </c>
+      <c r="F327" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G327" t="s">
+        <v>60</v>
+      </c>
+      <c r="H327" t="s">
+        <v>61</v>
+      </c>
+      <c r="I327" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>67</v>
+      </c>
+      <c r="C328" t="s">
+        <v>54</v>
+      </c>
+      <c r="D328" s="11">
+        <v>13.210197464999998</v>
+      </c>
+      <c r="F328" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G328" t="s">
+        <v>60</v>
+      </c>
+      <c r="H328" t="s">
+        <v>61</v>
+      </c>
+      <c r="I328" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
         <v>80</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B329" t="s">
         <v>81</v>
       </c>
-      <c r="C324" t="s">
-        <v>54</v>
-      </c>
-      <c r="D324">
+      <c r="C329" t="s">
+        <v>54</v>
+      </c>
+      <c r="D329">
         <v>0</v>
       </c>
-      <c r="E324" t="s">
+      <c r="E329" t="s">
         <v>41</v>
       </c>
-      <c r="F324" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G324" t="s">
+      <c r="F329" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G329" t="s">
         <v>68</v>
       </c>
-      <c r="I324" t="s">
-        <v>181</v>
+      <c r="I329" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2103975D-BBB2-433E-B5BE-1795401400D6}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>34.182910414277877</v>
+      </c>
+      <c r="E10">
+        <v>97.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1.3472481614272745E-5</v>
+      </c>
+      <c r="D11">
+        <v>8.9947155890124133</v>
+      </c>
+      <c r="E11" s="26">
+        <f>1000*0.00015225</f>
+        <v>0.15225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12">
+        <v>2.6570727628149027E-3</v>
+      </c>
+      <c r="D12">
+        <v>5.6084550575801383E-2</v>
+      </c>
+      <c r="E12">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.68883085661884558</v>
+      </c>
+      <c r="D21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="2">
+        <f>0.0807443330566553*0.90718474*1000</f>
+        <v>73.250026790475246</v>
+      </c>
+      <c r="E22" s="28">
+        <v>73.250026790475331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23">
+        <f>0.0181205140326961*0.90718474*1000</f>
+        <v>16.438653811417765</v>
+      </c>
+      <c r="E23" s="28">
+        <v>16.43865381141773</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2.33552297919117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" s="2">
+        <f>83.8075532188652*0.90718474</f>
+        <v>76.028933376892383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="2">
+        <v>109.57129105566415</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" s="5">
+        <v>22.112566837710503</v>
+      </c>
+      <c r="F26" s="2">
+        <v>21.671376530106802</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27">
+        <v>5.3950634769950809E-3</v>
+      </c>
+      <c r="F27" s="2">
+        <v>5.1972444828385896E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" s="2">
+        <v>36.273732772249062</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8046DB28-F383-4E17-A2A8-C3C4D97F8AC9}">
   <dimension ref="A1:G16"/>
   <sheetViews>
@@ -6543,7 +7117,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C1" t="s">
@@ -6559,23 +7133,23 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -6671,10 +7245,10 @@
       <c r="C11" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6722,7 +7296,7 @@
         <f>D6</f>
         <v>1001, Chemin St-Joseph, Saint-Thomas, QC J0K 3L0</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6753,7 +7327,7 @@
       <c r="C16" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6762,7 +7336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6138782-21FA-4298-8CD2-04BF34B30789}">
   <dimension ref="A1:F20"/>
   <sheetViews>
@@ -6778,22 +7352,22 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="18" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6841,7 +7415,7 @@
       <c r="D6">
         <v>0.03</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="19">
         <v>0.01</v>
       </c>
     </row>
@@ -6995,7 +7569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5C2DF4-6D0E-4BC8-8AFC-0764B2A32407}">
   <dimension ref="A2:O23"/>
   <sheetViews>
@@ -7021,7 +7595,7 @@
         <v>145</v>
       </c>
       <c r="H2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I2" t="s">
         <v>54</v>
@@ -7054,7 +7628,7 @@
         <v>146</v>
       </c>
       <c r="H3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I3" t="s">
         <v>54</v>
@@ -7087,7 +7661,7 @@
         <v>147</v>
       </c>
       <c r="H4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I4" t="s">
         <v>54</v>
@@ -7197,7 +7771,7 @@
         <v>145</v>
       </c>
       <c r="H19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I19" t="s">
         <v>54</v>
@@ -7229,7 +7803,7 @@
         <v>146</v>
       </c>
       <c r="H20" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I20" t="s">
         <v>54</v>
@@ -7262,7 +7836,7 @@
         <v>147</v>
       </c>
       <c r="H21" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I21" t="s">
         <v>54</v>
@@ -7306,12 +7880,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFFB9483-8BE5-4223-B419-E3DE6D98BB0C}">
-  <dimension ref="A3:D12"/>
+  <dimension ref="A3:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7350,24 +7924,24 @@
         <v>38.32</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6">
         <f>B4/B5</f>
         <v>0.48616910229645088</v>
       </c>
       <c r="C6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>170</v>
       </c>
       <c r="B7">
         <v>2579984</v>
@@ -7376,37 +7950,60 @@
         <v>149</v>
       </c>
       <c r="D7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B8">
         <v>60000</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9">
+        <v>225.37691214455452</v>
+      </c>
+      <c r="C9" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="B12">
         <f>B7*B6/B8</f>
         <v>20.905141753653442</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13">
+        <f>B9*B6</f>
+        <v>109.57129105566415</v>
+      </c>
+      <c r="C13" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>